--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -687,55 +687,55 @@
       </c>
       <c r="B2" s="13">
         <f>SUM($B5:$B1024)</f>
-        <v>570</v>
+        <v>766</v>
       </c>
       <c r="C2" s="13">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>453</v>
+        <v>257</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>453</v>
+        <v>257</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>56</v>
+        <v>36.4</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>49.25</v>
+        <v>29.650000000000006</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>-28.222222222222221</v>
+        <v>-47.822222222222223</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>49.25</v>
+        <v>29.650000000000006</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>49.25</v>
+        <v>29.650000000000006</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>65.25</v>
+        <v>45.650000000000006</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>34.25</v>
+        <v>14.650000000000006</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>49.25</v>
+        <v>29.650000000000006</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
-        <v>62.472222222222221</v>
+        <v>42.87222222222222</v>
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>66.25</v>
+        <v>46.650000000000006</v>
       </c>
       <c r="Q2" s="3">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
@@ -862,7 +862,7 @@
         <v>15.777777777777779</v>
       </c>
       <c r="H5" s="13">
-        <f t="shared" ref="H5:P8" si="0">$E5</f>
+        <f t="shared" ref="H5:P9" si="0">$E5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="I5" s="13"/>
@@ -911,7 +911,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:G8" si="1">$E6</f>
+        <f t="shared" ref="G6:P9" si="1">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -1053,17 +1053,59 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
+      <c r="A9" s="6">
+        <v>41464</v>
+      </c>
+      <c r="B9" s="3">
+        <v>196</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <f>B9/D9</f>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="1"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" si="1"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="1"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="1"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" si="1"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="L9" s="13">
+        <f t="shared" si="1"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" si="1"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="N9" s="13">
+        <f t="shared" si="1"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="O9" s="13">
+        <f t="shared" si="1"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="P9" s="13">
+        <f t="shared" si="1"/>
+        <v>19.600000000000001</v>
+      </c>
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.15">
@@ -6238,7 +6280,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:P2"/>
+      <selection activeCell="G1" sqref="G1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -111,9 +111,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -201,7 +202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,6 +243,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,7 +552,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -691,11 +695,11 @@
       </c>
       <c r="C2" s="13">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>257</v>
+        <v>357</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>257</v>
+        <v>357</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
@@ -707,7 +711,7 @@
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>-47.822222222222223</v>
+        <v>52.177777777777777</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
@@ -853,7 +857,7 @@
       <c r="D5" s="3">
         <v>9</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="14">
         <f>B5/D5</f>
         <v>15.777777777777779</v>
       </c>
@@ -862,7 +866,7 @@
         <v>15.777777777777779</v>
       </c>
       <c r="H5" s="13">
-        <f t="shared" ref="H5:P9" si="0">$E5</f>
+        <f t="shared" ref="H5:P8" si="0">$E5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="I5" s="13"/>
@@ -906,7 +910,7 @@
       <c r="D6" s="3">
         <v>9</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="14">
         <f>B6/D6</f>
         <v>14.555555555555555</v>
       </c>
@@ -959,7 +963,7 @@
       <c r="D7" s="3">
         <v>8</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="14">
         <f>B7/D7</f>
         <v>21.75</v>
       </c>
@@ -1009,7 +1013,7 @@
       <c r="D8" s="3">
         <v>9</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="14">
         <f>B8/D8</f>
         <v>13.666666666666666</v>
       </c>
@@ -1062,7 +1066,7 @@
       <c r="D9" s="3">
         <v>10</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="14">
         <f>B9/D9</f>
         <v>19.600000000000001</v>
       </c>
@@ -6280,7 +6284,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:P2"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6353,7 +6357,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>1023</v>
+        <v>1123</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -6365,7 +6369,7 @@
       </c>
       <c r="I2" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J2" s="3">
         <f t="shared" si="0"/>
@@ -6498,7 +6502,12 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6">
+        <v>41464</v>
+      </c>
+      <c r="I6" s="3">
+        <v>100</v>
+      </c>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -114,7 +114,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -245,7 +245,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,7 +552,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -691,35 +691,35 @@
       </c>
       <c r="B2" s="13">
         <f>SUM($B5:$B1024)</f>
-        <v>766</v>
+        <v>901</v>
       </c>
       <c r="C2" s="13">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>357</v>
+        <v>222.00000000000003</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>357</v>
+        <v>222</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>36.4</v>
+        <v>21.400000000000006</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>29.650000000000006</v>
+        <v>14.650000000000006</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>52.177777777777777</v>
+        <v>37.177777777777777</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>29.650000000000006</v>
+        <v>14.650000000000006</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>29.650000000000006</v>
+        <v>14.650000000000006</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
@@ -727,19 +727,19 @@
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>14.650000000000006</v>
+        <v>-0.34999999999999432</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>29.650000000000006</v>
+        <v>14.650000000000006</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
-        <v>42.87222222222222</v>
+        <v>27.87222222222222</v>
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>46.650000000000006</v>
+        <v>31.650000000000006</v>
       </c>
       <c r="Q2" s="3">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
@@ -915,7 +915,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:P9" si="1">$E6</f>
+        <f t="shared" ref="G6:P10" si="1">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -1113,17 +1113,56 @@
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="A10" s="6">
+        <v>41465</v>
+      </c>
+      <c r="B10" s="3">
+        <v>135</v>
+      </c>
+      <c r="D10" s="3">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3">
+        <f>B10/D10</f>
+        <v>15</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
+      <c r="M10" s="13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="N10" s="13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="O10" s="13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="P10" s="13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="消费" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -695,19 +695,19 @@
       </c>
       <c r="C2" s="13">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>222.00000000000003</v>
+        <v>921.99999999999989</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>222</v>
+        <v>922</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>21.400000000000006</v>
+        <v>121.4</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>14.650000000000006</v>
+        <v>114.65</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
@@ -715,7 +715,7 @@
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>14.650000000000006</v>
+        <v>114.65</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
@@ -723,15 +723,15 @@
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>45.650000000000006</v>
+        <v>145.65</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>-0.34999999999999432</v>
+        <v>99.65</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>14.650000000000006</v>
+        <v>114.65</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
@@ -739,7 +739,7 @@
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>31.650000000000006</v>
+        <v>131.65</v>
       </c>
       <c r="Q2" s="3">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
@@ -858,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f>B5/D5</f>
+        <f t="shared" ref="E5:E10" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -866,36 +866,36 @@
         <v>15.777777777777779</v>
       </c>
       <c r="H5" s="13">
-        <f t="shared" ref="H5:P8" si="0">$E5</f>
+        <f t="shared" ref="H5:P8" si="1">$E5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.777777777777779</v>
       </c>
       <c r="K5" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.777777777777779</v>
       </c>
       <c r="L5" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.777777777777779</v>
       </c>
       <c r="M5" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.777777777777779</v>
       </c>
       <c r="N5" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.777777777777779</v>
       </c>
       <c r="O5" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.777777777777779</v>
       </c>
       <c r="P5" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.777777777777779</v>
       </c>
       <c r="S5" s="3"/>
@@ -911,44 +911,44 @@
         <v>9</v>
       </c>
       <c r="E6" s="14">
-        <f>B6/D6</f>
-        <v>14.555555555555555</v>
-      </c>
-      <c r="G6" s="13">
-        <f t="shared" ref="G6:P10" si="1">$E6</f>
-        <v>14.555555555555555</v>
-      </c>
-      <c r="H6" s="13">
         <f t="shared" si="0"/>
         <v>14.555555555555555</v>
       </c>
+      <c r="G6" s="13">
+        <f t="shared" ref="G6:P10" si="2">$E6</f>
+        <v>14.555555555555555</v>
+      </c>
+      <c r="H6" s="13">
+        <f t="shared" si="1"/>
+        <v>14.555555555555555</v>
+      </c>
       <c r="I6" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.555555555555555</v>
       </c>
       <c r="J6" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.555555555555555</v>
       </c>
       <c r="K6" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.555555555555555</v>
       </c>
       <c r="L6" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.555555555555555</v>
       </c>
       <c r="M6" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.555555555555555</v>
       </c>
       <c r="N6" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.555555555555555</v>
       </c>
       <c r="O6" s="13"/>
       <c r="P6" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.555555555555555</v>
       </c>
       <c r="S6" s="3"/>
@@ -964,41 +964,41 @@
         <v>8</v>
       </c>
       <c r="E7" s="14">
-        <f>B7/D7</f>
+        <f t="shared" si="0"/>
         <v>21.75</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.75</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.75</v>
       </c>
       <c r="K7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.75</v>
       </c>
       <c r="L7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.75</v>
       </c>
       <c r="M7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.75</v>
       </c>
       <c r="N7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.75</v>
       </c>
       <c r="O7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.75</v>
       </c>
       <c r="P7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.75</v>
       </c>
       <c r="S7" s="3"/>
@@ -1014,44 +1014,44 @@
         <v>9</v>
       </c>
       <c r="E8" s="14">
-        <f>B8/D8</f>
+        <f t="shared" si="0"/>
         <v>13.666666666666666</v>
       </c>
       <c r="G8" s="13">
+        <f t="shared" si="2"/>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="H8" s="13">
         <f t="shared" si="1"/>
         <v>13.666666666666666</v>
       </c>
-      <c r="H8" s="13">
-        <f t="shared" si="0"/>
+      <c r="I8" s="13">
+        <f t="shared" si="1"/>
         <v>13.666666666666666</v>
       </c>
-      <c r="I8" s="13">
-        <f t="shared" si="0"/>
+      <c r="J8" s="13">
+        <f t="shared" si="1"/>
         <v>13.666666666666666</v>
       </c>
-      <c r="J8" s="13">
-        <f t="shared" si="0"/>
+      <c r="K8" s="13">
+        <f t="shared" si="1"/>
         <v>13.666666666666666</v>
       </c>
-      <c r="K8" s="13">
-        <f t="shared" si="0"/>
+      <c r="L8" s="13">
+        <f t="shared" si="1"/>
         <v>13.666666666666666</v>
       </c>
-      <c r="L8" s="13">
-        <f t="shared" si="0"/>
+      <c r="M8" s="13">
+        <f t="shared" si="1"/>
         <v>13.666666666666666</v>
       </c>
-      <c r="M8" s="13">
-        <f t="shared" si="0"/>
-        <v>13.666666666666666</v>
-      </c>
       <c r="N8" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.666666666666666</v>
       </c>
       <c r="O8" s="13"/>
       <c r="P8" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.666666666666666</v>
       </c>
       <c r="S8" s="3"/>
@@ -1067,47 +1067,47 @@
         <v>10</v>
       </c>
       <c r="E9" s="14">
-        <f>B9/D9</f>
+        <f t="shared" si="0"/>
         <v>19.600000000000001</v>
       </c>
       <c r="G9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.600000000000001</v>
       </c>
       <c r="H9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.600000000000001</v>
       </c>
       <c r="I9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.600000000000001</v>
       </c>
       <c r="J9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.600000000000001</v>
       </c>
       <c r="K9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.600000000000001</v>
       </c>
       <c r="L9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.600000000000001</v>
       </c>
       <c r="M9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.600000000000001</v>
       </c>
       <c r="N9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.600000000000001</v>
       </c>
       <c r="O9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.600000000000001</v>
       </c>
       <c r="P9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.600000000000001</v>
       </c>
       <c r="S9" s="3"/>
@@ -1123,44 +1123,44 @@
         <v>9</v>
       </c>
       <c r="E10" s="3">
-        <f>B10/D10</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G10" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="H10" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I10" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="J10" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="K10" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="N10" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="O10" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="P10" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="S10" s="3"/>
@@ -6322,8 +6322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6396,15 +6396,15 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>1123</v>
+        <v>1823</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(H3:H1004)</f>
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" si="0"/>
@@ -6412,7 +6412,7 @@
       </c>
       <c r="J2" s="3">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="K2" s="3">
         <f t="shared" si="0"/>
@@ -6420,15 +6420,15 @@
       </c>
       <c r="L2" s="3">
         <f>SUM(L3:L1004)</f>
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ref="M2:AD2" si="1">SUM(M3:M1004)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" s="3">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="O2" s="3">
         <f t="shared" si="1"/>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="P2" s="3">
         <f t="shared" si="1"/>
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="Q2" s="3">
         <f t="shared" si="1"/>
@@ -6550,7 +6550,30 @@
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
+      <c r="A7" s="6">
+        <v>41465</v>
+      </c>
+      <c r="G7" s="3">
+        <v>100</v>
+      </c>
+      <c r="H7" s="3">
+        <v>100</v>
+      </c>
+      <c r="J7" s="3">
+        <v>100</v>
+      </c>
+      <c r="L7" s="3">
+        <v>100</v>
+      </c>
+      <c r="M7" s="3">
+        <v>100</v>
+      </c>
+      <c r="N7" s="3">
+        <v>100</v>
+      </c>
+      <c r="P7" s="3">
+        <v>100</v>
+      </c>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="消费" sheetId="1" r:id="rId1"/>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF431"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -691,15 +691,15 @@
       </c>
       <c r="B2" s="13">
         <f>SUM($B5:$B1024)</f>
-        <v>901</v>
+        <v>1024</v>
       </c>
       <c r="C2" s="13">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>921.99999999999989</v>
+        <v>799</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>922</v>
+        <v>799</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
@@ -707,11 +707,11 @@
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>114.65</v>
+        <v>99.275000000000006</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>37.177777777777777</v>
+        <v>21.802777777777777</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
@@ -719,27 +719,27 @@
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>14.650000000000006</v>
+        <v>-0.72499999999999432</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>145.65</v>
+        <v>130.27500000000001</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>99.65</v>
+        <v>84.275000000000006</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>114.65</v>
+        <v>99.275000000000006</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
-        <v>27.87222222222222</v>
+        <v>12.49722222222222</v>
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>131.65</v>
+        <v>116.27500000000001</v>
       </c>
       <c r="Q2" s="3">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
@@ -858,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E10" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E11" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -915,7 +915,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:P10" si="2">$E6</f>
+        <f t="shared" ref="G6:P11" si="2">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -1122,7 +1122,7 @@
       <c r="D10" s="3">
         <v>9</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1166,17 +1166,53 @@
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
+      <c r="A11" s="6">
+        <v>41466</v>
+      </c>
+      <c r="B11" s="3">
+        <v>123</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="0"/>
+        <v>15.375</v>
+      </c>
       <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="H11" s="13">
+        <f t="shared" si="2"/>
+        <v>15.375</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="2"/>
+        <v>15.375</v>
+      </c>
       <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
+      <c r="K11" s="13">
+        <f t="shared" si="2"/>
+        <v>15.375</v>
+      </c>
+      <c r="L11" s="13">
+        <f t="shared" si="2"/>
+        <v>15.375</v>
+      </c>
+      <c r="M11" s="13">
+        <f t="shared" si="2"/>
+        <v>15.375</v>
+      </c>
+      <c r="N11" s="13">
+        <f t="shared" si="2"/>
+        <v>15.375</v>
+      </c>
+      <c r="O11" s="13">
+        <f t="shared" si="2"/>
+        <v>15.375</v>
+      </c>
+      <c r="P11" s="13">
+        <f t="shared" si="2"/>
+        <v>15.375</v>
+      </c>
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.15">
@@ -6322,8 +6358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -552,7 +552,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -695,11 +695,11 @@
       </c>
       <c r="C2" s="13">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>799</v>
+        <v>899</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>799</v>
+        <v>899</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
@@ -719,7 +719,7 @@
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>-0.72499999999999432</v>
+        <v>99.275000000000006</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
@@ -6359,7 +6359,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>1823</v>
+        <v>1923</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="K2" s="3">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L2" s="3">
         <f>SUM(L3:L1004)</f>
@@ -6613,7 +6613,12 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
+      <c r="A8" s="6">
+        <v>41467</v>
+      </c>
+      <c r="K8" s="3">
+        <v>100</v>
+      </c>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -552,7 +552,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -691,47 +691,47 @@
       </c>
       <c r="B2" s="13">
         <f>SUM($B5:$B1024)</f>
-        <v>1024</v>
+        <v>1283</v>
       </c>
       <c r="C2" s="13">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>899</v>
+        <v>640</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>899</v>
+        <v>640</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>121.4</v>
+        <v>89.025000000000006</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>99.275000000000006</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>21.802777777777777</v>
+        <v>7.6777777777777771</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>114.65</v>
+        <v>82.275000000000006</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>99.275000000000006</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>130.27500000000001</v>
+        <v>97.9</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>84.275000000000006</v>
+        <v>66.025000000000006</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>99.275000000000006</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
@@ -739,7 +739,7 @@
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>116.27500000000001</v>
+        <v>83.9</v>
       </c>
       <c r="Q2" s="3">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
@@ -858,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E11" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E13" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -915,7 +915,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:P11" si="2">$E6</f>
+        <f t="shared" ref="G6:P13" si="2">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -1216,31 +1216,103 @@
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="A12" s="6">
+        <v>41467</v>
+      </c>
+      <c r="B12" s="3">
+        <v>146</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="0"/>
+        <v>18.25</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="2"/>
+        <v>18.25</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="2"/>
+        <v>18.25</v>
+      </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="J12" s="13">
+        <f t="shared" si="2"/>
+        <v>18.25</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" si="2"/>
+        <v>18.25</v>
+      </c>
+      <c r="L12" s="13">
+        <f t="shared" si="2"/>
+        <v>18.25</v>
+      </c>
+      <c r="M12" s="13">
+        <f t="shared" si="2"/>
+        <v>18.25</v>
+      </c>
+      <c r="N12" s="13">
+        <f t="shared" si="2"/>
+        <v>18.25</v>
+      </c>
       <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
+      <c r="P12" s="13">
+        <f t="shared" si="2"/>
+        <v>18.25</v>
+      </c>
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="A13" s="6">
+        <v>41470</v>
+      </c>
+      <c r="B13" s="3">
+        <v>113</v>
+      </c>
+      <c r="D13" s="3">
+        <v>8</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" si="0"/>
+        <v>14.125</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="2"/>
+        <v>14.125</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="2"/>
+        <v>14.125</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="2"/>
+        <v>14.125</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="2"/>
+        <v>14.125</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="shared" si="2"/>
+        <v>14.125</v>
+      </c>
+      <c r="L13" s="13">
+        <f t="shared" si="2"/>
+        <v>14.125</v>
+      </c>
       <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="N13" s="13">
+        <f t="shared" si="2"/>
+        <v>14.125</v>
+      </c>
       <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
+      <c r="P13" s="13">
+        <f t="shared" si="2"/>
+        <v>14.125</v>
+      </c>
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="消费" sheetId="1" r:id="rId1"/>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -695,11 +695,11 @@
       </c>
       <c r="C2" s="13">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>640</v>
+        <v>740</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>640</v>
+        <v>740</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
@@ -735,7 +735,7 @@
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
-        <v>12.49722222222222</v>
+        <v>112.49722222222222</v>
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
@@ -6430,8 +6430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6504,7 +6504,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>1923</v>
+        <v>2023</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="O2" s="3">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P2" s="3">
         <f t="shared" si="1"/>
@@ -6694,7 +6694,12 @@
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+      <c r="A9" s="6">
+        <v>41471</v>
+      </c>
+      <c r="O9" s="3">
+        <v>100</v>
+      </c>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="消费" sheetId="1" r:id="rId1"/>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF431"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -691,35 +691,35 @@
       </c>
       <c r="B2" s="13">
         <f>SUM($B5:$B1024)</f>
-        <v>1283</v>
+        <v>1390</v>
       </c>
       <c r="C2" s="13">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>740</v>
+        <v>633</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>740</v>
+        <v>633</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>89.025000000000006</v>
+        <v>77.13611111111112</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>66.900000000000006</v>
+        <v>55.01111111111112</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>7.6777777777777771</v>
+        <v>-4.2111111111111086</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>82.275000000000006</v>
+        <v>70.38611111111112</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>66.900000000000006</v>
+        <v>55.01111111111112</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
@@ -727,19 +727,19 @@
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>66.025000000000006</v>
+        <v>54.13611111111112</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>66.900000000000006</v>
+        <v>55.01111111111112</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
-        <v>112.49722222222222</v>
+        <v>100.60833333333333</v>
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>83.9</v>
+        <v>72.01111111111112</v>
       </c>
       <c r="Q2" s="3">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
@@ -858,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E13" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E14" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -915,7 +915,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:P13" si="2">$E6</f>
+        <f t="shared" ref="G6:P14" si="2">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -1316,17 +1316,56 @@
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="A14" s="6">
+        <v>41471</v>
+      </c>
+      <c r="B14" s="3">
+        <v>107</v>
+      </c>
+      <c r="D14" s="3">
+        <v>9</v>
+      </c>
+      <c r="E14" s="14">
+        <f t="shared" si="0"/>
+        <v>11.888888888888889</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="2"/>
+        <v>11.888888888888889</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="2"/>
+        <v>11.888888888888889</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="2"/>
+        <v>11.888888888888889</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="2"/>
+        <v>11.888888888888889</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="2"/>
+        <v>11.888888888888889</v>
+      </c>
       <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
+      <c r="M14" s="13">
+        <f t="shared" si="2"/>
+        <v>11.888888888888889</v>
+      </c>
+      <c r="N14" s="13">
+        <f t="shared" si="2"/>
+        <v>11.888888888888889</v>
+      </c>
+      <c r="O14" s="13">
+        <f t="shared" si="2"/>
+        <v>11.888888888888889</v>
+      </c>
+      <c r="P14" s="13">
+        <f t="shared" si="2"/>
+        <v>11.888888888888889</v>
+      </c>
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.15">
@@ -6430,7 +6469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -552,7 +552,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -691,55 +691,55 @@
       </c>
       <c r="B2" s="13">
         <f>SUM($B5:$B1024)</f>
-        <v>1390</v>
+        <v>1527</v>
       </c>
       <c r="C2" s="13">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>633</v>
+        <v>596.00000000000011</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>633</v>
+        <v>596</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>77.13611111111112</v>
+        <v>63.436111111111131</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>55.01111111111112</v>
+        <v>41.311111111111131</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>-4.2111111111111086</v>
+        <v>-17.911111111111111</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>70.38611111111112</v>
+        <v>56.686111111111131</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>55.01111111111112</v>
+        <v>41.311111111111131</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>97.9</v>
+        <v>84.200000000000017</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>54.13611111111112</v>
+        <v>40.436111111111131</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>55.01111111111112</v>
+        <v>141.31111111111113</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
-        <v>100.60833333333333</v>
+        <v>86.908333333333331</v>
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>72.01111111111112</v>
+        <v>58.311111111111131</v>
       </c>
       <c r="Q2" s="3">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
@@ -858,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E14" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E15" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -915,7 +915,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:P14" si="2">$E6</f>
+        <f t="shared" ref="G6:P15" si="2">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -1369,17 +1369,59 @@
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+      <c r="A15" s="6">
+        <v>41472</v>
+      </c>
+      <c r="B15" s="3">
+        <v>137</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14">
+        <f t="shared" si="0"/>
+        <v>13.7</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="2"/>
+        <v>13.7</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="2"/>
+        <v>13.7</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="2"/>
+        <v>13.7</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="2"/>
+        <v>13.7</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="2"/>
+        <v>13.7</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="2"/>
+        <v>13.7</v>
+      </c>
+      <c r="M15" s="13">
+        <f t="shared" si="2"/>
+        <v>13.7</v>
+      </c>
+      <c r="N15" s="13">
+        <f t="shared" si="2"/>
+        <v>13.7</v>
+      </c>
+      <c r="O15" s="13">
+        <f t="shared" si="2"/>
+        <v>13.7</v>
+      </c>
+      <c r="P15" s="13">
+        <f t="shared" si="2"/>
+        <v>13.7</v>
+      </c>
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.15">
@@ -6470,7 +6512,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6543,7 +6585,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>2023</v>
+        <v>2123</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -6575,7 +6617,7 @@
       </c>
       <c r="N2" s="3">
         <f t="shared" si="1"/>
-        <v>215</v>
+        <v>315</v>
       </c>
       <c r="O2" s="3">
         <f t="shared" si="1"/>
@@ -6742,7 +6784,12 @@
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6">
+        <v>41472</v>
+      </c>
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="消费" sheetId="1" r:id="rId1"/>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -691,55 +691,55 @@
       </c>
       <c r="B2" s="13">
         <f>SUM($B5:$B1024)</f>
-        <v>1527</v>
+        <v>1907</v>
       </c>
       <c r="C2" s="13">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>596.00000000000011</v>
+        <v>616.00000000000011</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>63.436111111111131</v>
+        <v>225.43611111111113</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>41.311111111111131</v>
+        <v>3.3111111111111313</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>-17.911111111111111</v>
+        <v>-55.911111111111097</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>56.686111111111131</v>
+        <v>18.686111111111131</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>41.311111111111131</v>
+        <v>103.31111111111113</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>84.200000000000017</v>
+        <v>46.200000000000017</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>40.436111111111131</v>
+        <v>2.4361111111111313</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>141.31111111111113</v>
+        <v>103.31111111111113</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
-        <v>86.908333333333331</v>
+        <v>48.908333333333331</v>
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>58.311111111111131</v>
+        <v>120.31111111111113</v>
       </c>
       <c r="Q2" s="3">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
@@ -858,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E15" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E16" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -915,7 +915,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:P15" si="2">$E6</f>
+        <f t="shared" ref="G6:P16" si="2">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -1425,17 +1425,59 @@
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
+      <c r="A16" s="6">
+        <v>41473</v>
+      </c>
+      <c r="B16" s="3">
+        <v>380</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
+      <c r="E16" s="14">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G16" s="13">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="H16" s="13">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="J16" s="13">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="L16" s="13">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="M16" s="13">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="N16" s="13">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="O16" s="13">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="P16" s="13">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
@@ -6511,8 +6553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6585,11 +6627,11 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>2123</v>
+        <v>2523</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(H3:H1004)</f>
@@ -6605,7 +6647,7 @@
       </c>
       <c r="K2" s="3">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>315</v>
       </c>
       <c r="L2" s="3">
         <f>SUM(L3:L1004)</f>
@@ -6625,7 +6667,7 @@
       </c>
       <c r="P2" s="3">
         <f t="shared" si="1"/>
-        <v>232</v>
+        <v>332</v>
       </c>
       <c r="Q2" s="3">
         <f t="shared" si="1"/>
@@ -6793,7 +6835,18 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
+      <c r="A11" s="6">
+        <v>41473</v>
+      </c>
+      <c r="G11" s="3">
+        <v>200</v>
+      </c>
+      <c r="K11" s="3">
+        <v>100</v>
+      </c>
+      <c r="P11" s="3">
+        <v>100</v>
+      </c>
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="消费" sheetId="1" r:id="rId1"/>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF431"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -695,11 +695,11 @@
       </c>
       <c r="C2" s="13">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>616.00000000000011</v>
+        <v>716.00000000000011</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>616</v>
+        <v>716</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
@@ -711,7 +711,7 @@
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>-55.911111111111097</v>
+        <v>44.088888888888903</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
@@ -6553,8 +6553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>2523</v>
+        <v>2623</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -6639,7 +6639,7 @@
       </c>
       <c r="I2" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J2" s="3">
         <f t="shared" si="0"/>
@@ -6850,7 +6850,12 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
+      <c r="A12" s="6">
+        <v>41474</v>
+      </c>
+      <c r="I12" s="3">
+        <v>100</v>
+      </c>
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -111,10 +111,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -202,7 +203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,6 +247,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,13 +559,13 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G17" sqref="G17:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="15" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
     <col min="5" max="13" width="9" style="3"/>
@@ -569,7 +576,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -689,57 +696,57 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="16">
         <f>SUM($B5:$B1024)</f>
-        <v>1907</v>
-      </c>
-      <c r="C2" s="13">
+        <v>2051</v>
+      </c>
+      <c r="C2" s="16">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>716.00000000000011</v>
-      </c>
-      <c r="D2" s="13">
+        <v>572.00000000000011</v>
+      </c>
+      <c r="D2" s="16">
         <f>充值!B2-B2</f>
-        <v>716</v>
+        <v>572</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>225.43611111111113</v>
+        <v>211.03611111111113</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>3.3111111111111313</v>
+        <v>-11.088888888888874</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>44.088888888888903</v>
+        <v>29.688888888888897</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>18.686111111111131</v>
+        <v>4.2861111111111256</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>103.31111111111113</v>
+        <v>88.911111111111126</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>46.200000000000017</v>
+        <v>31.800000000000011</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>2.4361111111111313</v>
+        <v>-11.963888888888874</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>103.31111111111113</v>
+        <v>88.911111111111126</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
-        <v>48.908333333333331</v>
+        <v>34.508333333333326</v>
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>120.31111111111113</v>
+        <v>105.91111111111113</v>
       </c>
       <c r="Q2" s="3">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
@@ -823,7 +830,7 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -851,14 +858,14 @@
       <c r="A5" s="6">
         <v>41458</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="15">
         <v>142</v>
       </c>
       <c r="D5" s="3">
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E16" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E17" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -904,7 +911,7 @@
       <c r="A6" s="6">
         <v>41459</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="15">
         <v>131</v>
       </c>
       <c r="D6" s="3">
@@ -915,7 +922,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:P16" si="2">$E6</f>
+        <f t="shared" ref="G6:P17" si="2">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -957,7 +964,7 @@
       <c r="A7" s="6">
         <v>41460</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="15">
         <v>174</v>
       </c>
       <c r="D7" s="3">
@@ -1007,7 +1014,7 @@
       <c r="A8" s="6">
         <v>41463</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="15">
         <v>123</v>
       </c>
       <c r="D8" s="3">
@@ -1060,7 +1067,7 @@
       <c r="A9" s="6">
         <v>41464</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="15">
         <v>196</v>
       </c>
       <c r="D9" s="3">
@@ -1116,7 +1123,7 @@
       <c r="A10" s="6">
         <v>41465</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="15">
         <v>135</v>
       </c>
       <c r="D10" s="3">
@@ -1169,7 +1176,7 @@
       <c r="A11" s="6">
         <v>41466</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="15">
         <v>123</v>
       </c>
       <c r="D11" s="3">
@@ -1219,7 +1226,7 @@
       <c r="A12" s="6">
         <v>41467</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="15">
         <v>146</v>
       </c>
       <c r="D12" s="3">
@@ -1269,7 +1276,7 @@
       <c r="A13" s="6">
         <v>41470</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="15">
         <v>113</v>
       </c>
       <c r="D13" s="3">
@@ -1319,7 +1326,7 @@
       <c r="A14" s="6">
         <v>41471</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="15">
         <v>107</v>
       </c>
       <c r="D14" s="3">
@@ -1372,7 +1379,7 @@
       <c r="A15" s="6">
         <v>41472</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="15">
         <v>137</v>
       </c>
       <c r="D15" s="3">
@@ -1428,7 +1435,7 @@
       <c r="A16" s="6">
         <v>41473</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="15">
         <v>380</v>
       </c>
       <c r="D16" s="3">
@@ -1481,17 +1488,59 @@
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
+      <c r="A17" s="6">
+        <v>41474</v>
+      </c>
+      <c r="B17" s="15">
+        <v>144</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10</v>
+      </c>
+      <c r="E17" s="14">
+        <f t="shared" si="0"/>
+        <v>14.4</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
+      <c r="L17" s="13">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
+      <c r="M17" s="13">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
+      <c r="N17" s="13">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
+      <c r="O17" s="13">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
+      <c r="P17" s="13">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -115,7 +115,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -252,7 +252,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,7 +559,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:P17"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -702,11 +702,11 @@
       </c>
       <c r="C2" s="16">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>572.00000000000011</v>
+        <v>772.00000000000023</v>
       </c>
       <c r="D2" s="16">
         <f>充值!B2-B2</f>
-        <v>572</v>
+        <v>772</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
@@ -714,7 +714,7 @@
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>-11.088888888888874</v>
+        <v>88.911111111111126</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
@@ -722,7 +722,7 @@
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>4.2861111111111256</v>
+        <v>104.28611111111113</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
@@ -6603,7 +6603,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6676,7 +6676,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>2623</v>
+        <v>2823</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(H3:H1004)</f>
-        <v>215</v>
+        <v>315</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" si="0"/>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="J2" s="3">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>315</v>
       </c>
       <c r="K2" s="3">
         <f t="shared" si="0"/>
@@ -6908,7 +6908,15 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
+      <c r="A13" s="6">
+        <v>41477</v>
+      </c>
+      <c r="H13" s="3">
+        <v>100</v>
+      </c>
+      <c r="J13" s="3">
+        <v>100</v>
+      </c>
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -559,7 +559,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -702,11 +702,11 @@
       </c>
       <c r="C2" s="16">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>772.00000000000023</v>
+        <v>872.00000000000023</v>
       </c>
       <c r="D2" s="16">
         <f>充值!B2-B2</f>
-        <v>772</v>
+        <v>872</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
@@ -730,7 +730,7 @@
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>31.800000000000011</v>
+        <v>131.80000000000001</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
@@ -6603,7 +6603,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6676,7 +6676,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>2823</v>
+        <v>2923</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -6700,7 +6700,7 @@
       </c>
       <c r="L2" s="3">
         <f>SUM(L3:L1004)</f>
-        <v>231</v>
+        <v>331</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ref="M2:AD2" si="1">SUM(M3:M1004)</f>
@@ -6915,6 +6915,9 @@
         <v>100</v>
       </c>
       <c r="J13" s="3">
+        <v>100</v>
+      </c>
+      <c r="L13" s="3">
         <v>100</v>
       </c>
       <c r="Q13" s="3"/>

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -105,6 +105,10 @@
   <si>
     <t>余额总额</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢一川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -559,7 +563,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -627,9 +631,9 @@
         <f>充值!P1</f>
         <v>刘洪江</v>
       </c>
-      <c r="Q1" s="10">
+      <c r="Q1" s="10" t="str">
         <f>充值!Q1</f>
-        <v>0</v>
+        <v>谢一川</v>
       </c>
       <c r="R1" s="10">
         <f>充值!R1</f>
@@ -698,23 +702,23 @@
       </c>
       <c r="B2" s="16">
         <f>SUM($B5:$B1024)</f>
-        <v>2051</v>
+        <v>2210</v>
       </c>
       <c r="C2" s="16">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>872.00000000000023</v>
+        <v>813.00000000000011</v>
       </c>
       <c r="D2" s="16">
         <f>充值!B2-B2</f>
-        <v>872</v>
+        <v>813</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>211.03611111111113</v>
+        <v>195.13611111111112</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>88.911111111111126</v>
+        <v>73.01111111111112</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
@@ -722,35 +726,35 @@
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>104.28611111111113</v>
+        <v>88.38611111111112</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>88.911111111111126</v>
+        <v>73.01111111111112</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>131.80000000000001</v>
+        <v>115.9</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>-11.963888888888874</v>
+        <v>-27.86388888888888</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>88.911111111111126</v>
+        <v>73.01111111111112</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
-        <v>34.508333333333326</v>
+        <v>18.60833333333332</v>
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>105.91111111111113</v>
+        <v>90.01111111111112</v>
       </c>
       <c r="Q2" s="3">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
-        <v>0</v>
+        <v>84.1</v>
       </c>
       <c r="R2" s="3">
         <f>充值!R2-SUM(R3:R1004)</f>
@@ -865,7 +869,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E17" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E18" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -922,7 +926,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:P17" si="2">$E6</f>
+        <f t="shared" ref="G6:Q18" si="2">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -1544,17 +1548,60 @@
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="A18" s="6">
+        <v>41477</v>
+      </c>
+      <c r="B18" s="15">
+        <v>159</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" si="0"/>
+        <v>15.9</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" si="2"/>
+        <v>15.9</v>
+      </c>
+      <c r="H18" s="13">
+        <f t="shared" si="2"/>
+        <v>15.9</v>
+      </c>
       <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
+      <c r="J18" s="13">
+        <f t="shared" si="2"/>
+        <v>15.9</v>
+      </c>
+      <c r="K18" s="13">
+        <f t="shared" si="2"/>
+        <v>15.9</v>
+      </c>
+      <c r="L18" s="13">
+        <f t="shared" si="2"/>
+        <v>15.9</v>
+      </c>
+      <c r="M18" s="13">
+        <f t="shared" si="2"/>
+        <v>15.9</v>
+      </c>
+      <c r="N18" s="13">
+        <f t="shared" si="2"/>
+        <v>15.9</v>
+      </c>
+      <c r="O18" s="13">
+        <f t="shared" si="2"/>
+        <v>15.9</v>
+      </c>
+      <c r="P18" s="13">
+        <f t="shared" si="2"/>
+        <v>15.9</v>
+      </c>
+      <c r="Q18" s="13">
+        <f t="shared" si="2"/>
+        <v>15.9</v>
+      </c>
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
@@ -6603,7 +6650,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6655,7 +6702,9 @@
       <c r="P1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="11"/>
+      <c r="Q1" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
@@ -6676,7 +6725,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>2923</v>
+        <v>3023</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -6720,7 +6769,7 @@
       </c>
       <c r="Q2" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R2" s="3">
         <f t="shared" si="1"/>
@@ -6920,7 +6969,9 @@
       <c r="L13" s="3">
         <v>100</v>
       </c>
-      <c r="Q13" s="3"/>
+      <c r="Q13" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -563,7 +563,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -702,27 +702,27 @@
       </c>
       <c r="B2" s="16">
         <f>SUM($B5:$B1024)</f>
-        <v>2210</v>
+        <v>2339</v>
       </c>
       <c r="C2" s="16">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>813.00000000000011</v>
+        <v>784.00000000000011</v>
       </c>
       <c r="D2" s="16">
         <f>充值!B2-B2</f>
-        <v>813</v>
+        <v>784</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>195.13611111111112</v>
+        <v>180.80277777777778</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>73.01111111111112</v>
+        <v>58.677777777777806</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>29.688888888888897</v>
+        <v>15.355555555555554</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
@@ -730,19 +730,19 @@
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>73.01111111111112</v>
+        <v>58.677777777777806</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>115.9</v>
+        <v>101.56666666666666</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>-27.86388888888888</v>
+        <v>57.802777777777777</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>73.01111111111112</v>
+        <v>58.677777777777806</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
@@ -750,11 +750,11 @@
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>90.01111111111112</v>
-      </c>
-      <c r="Q2" s="3">
+        <v>75.677777777777806</v>
+      </c>
+      <c r="Q2" s="13">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
-        <v>84.1</v>
+        <v>69.766666666666666</v>
       </c>
       <c r="R2" s="3">
         <f>充值!R2-SUM(R3:R1004)</f>
@@ -869,7 +869,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E18" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E19" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -926,7 +926,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:Q18" si="2">$E6</f>
+        <f t="shared" ref="G6:Q19" si="2">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -1605,17 +1605,57 @@
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="A19" s="6">
+        <v>41478</v>
+      </c>
+      <c r="B19" s="15">
+        <v>129</v>
+      </c>
+      <c r="D19" s="3">
+        <v>9</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" si="0"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" si="2"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="H19" s="13">
+        <f t="shared" si="2"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="2"/>
+        <v>14.333333333333334</v>
+      </c>
       <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
+      <c r="K19" s="13">
+        <f t="shared" si="2"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="L19" s="13">
+        <f t="shared" si="2"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="M19" s="13">
+        <f t="shared" si="2"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="N19" s="13">
+        <f t="shared" si="2"/>
+        <v>14.333333333333334</v>
+      </c>
       <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
+      <c r="P19" s="13">
+        <f t="shared" si="2"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="Q19" s="13">
+        <f t="shared" si="2"/>
+        <v>14.333333333333334</v>
+      </c>
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
@@ -6650,7 +6690,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6725,7 +6765,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>3023</v>
+        <v>3123</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -6753,7 +6793,7 @@
       </c>
       <c r="M2" s="3">
         <f t="shared" ref="M2:AD2" si="1">SUM(M3:M1004)</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N2" s="3">
         <f t="shared" si="1"/>
@@ -6967,6 +7007,9 @@
         <v>100</v>
       </c>
       <c r="L13" s="3">
+        <v>100</v>
+      </c>
+      <c r="M13" s="3">
         <v>100</v>
       </c>
       <c r="Q13" s="3">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -563,7 +563,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -702,59 +702,59 @@
       </c>
       <c r="B2" s="16">
         <f>SUM($B5:$B1024)</f>
-        <v>2339</v>
+        <v>2677</v>
       </c>
       <c r="C2" s="16">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>784.00000000000011</v>
+        <v>446.00000000000011</v>
       </c>
       <c r="D2" s="16">
         <f>充值!B2-B2</f>
-        <v>784</v>
+        <v>446</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>180.80277777777778</v>
+        <v>147.12601010101008</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>58.677777777777806</v>
+        <v>25.001010101010138</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>15.355555555555554</v>
+        <v>-18.321212121212113</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>88.38611111111112</v>
+        <v>70.931565656565681</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>58.677777777777806</v>
+        <v>25.001010101010138</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>101.56666666666666</v>
+        <v>67.889898989898995</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>57.802777777777777</v>
+        <v>24.126010101010081</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>58.677777777777806</v>
+        <v>25.001010101010138</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
-        <v>18.60833333333332</v>
+        <v>1.1537878787878526</v>
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>75.677777777777806</v>
+        <v>42.001010101010138</v>
       </c>
       <c r="Q2" s="13">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
-        <v>69.766666666666666</v>
+        <v>36.089898989898991</v>
       </c>
       <c r="R2" s="3">
         <f>充值!R2-SUM(R3:R1004)</f>
@@ -869,7 +869,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E19" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E21" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -926,7 +926,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:Q19" si="2">$E6</f>
+        <f t="shared" ref="G6:Q21" si="2">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -1659,31 +1659,117 @@
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
+      <c r="A20" s="6">
+        <v>41479</v>
+      </c>
+      <c r="B20" s="15">
+        <v>192</v>
+      </c>
+      <c r="D20" s="3">
+        <v>11</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="0"/>
+        <v>17.454545454545453</v>
+      </c>
+      <c r="G20" s="13">
+        <f t="shared" si="2"/>
+        <v>17.454545454545453</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" si="2"/>
+        <v>17.454545454545453</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" si="2"/>
+        <v>17.454545454545453</v>
+      </c>
+      <c r="J20" s="13">
+        <f t="shared" si="2"/>
+        <v>17.454545454545453</v>
+      </c>
+      <c r="K20" s="13">
+        <f t="shared" si="2"/>
+        <v>17.454545454545453</v>
+      </c>
+      <c r="L20" s="13">
+        <f t="shared" si="2"/>
+        <v>17.454545454545453</v>
+      </c>
+      <c r="M20" s="13">
+        <f t="shared" si="2"/>
+        <v>17.454545454545453</v>
+      </c>
+      <c r="N20" s="13">
+        <f t="shared" si="2"/>
+        <v>17.454545454545453</v>
+      </c>
+      <c r="O20" s="13">
+        <f t="shared" si="2"/>
+        <v>17.454545454545453</v>
+      </c>
+      <c r="P20" s="13">
+        <f t="shared" si="2"/>
+        <v>17.454545454545453</v>
+      </c>
+      <c r="Q20" s="13">
+        <f t="shared" si="2"/>
+        <v>17.454545454545453</v>
+      </c>
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="A21" s="6">
+        <v>41480</v>
+      </c>
+      <c r="B21" s="15">
+        <v>146</v>
+      </c>
+      <c r="D21" s="3">
+        <v>9</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="0"/>
+        <v>16.222222222222221</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" si="2"/>
+        <v>16.222222222222221</v>
+      </c>
+      <c r="H21" s="13">
+        <f t="shared" si="2"/>
+        <v>16.222222222222221</v>
+      </c>
+      <c r="I21" s="13">
+        <f t="shared" si="2"/>
+        <v>16.222222222222221</v>
+      </c>
       <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
+      <c r="K21" s="13">
+        <f t="shared" si="2"/>
+        <v>16.222222222222221</v>
+      </c>
+      <c r="L21" s="13">
+        <f t="shared" si="2"/>
+        <v>16.222222222222221</v>
+      </c>
+      <c r="M21" s="13">
+        <f t="shared" si="2"/>
+        <v>16.222222222222221</v>
+      </c>
+      <c r="N21" s="13">
+        <f t="shared" si="2"/>
+        <v>16.222222222222221</v>
+      </c>
       <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
+      <c r="P21" s="13">
+        <f t="shared" si="2"/>
+        <v>16.222222222222221</v>
+      </c>
+      <c r="Q21" s="13">
+        <f t="shared" si="2"/>
+        <v>16.222222222222221</v>
+      </c>
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
@@ -6690,7 +6776,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="H5" sqref="H5:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -115,11 +115,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="179" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="181" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -207,7 +208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,6 +258,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -563,7 +567,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -702,55 +706,55 @@
       </c>
       <c r="B2" s="16">
         <f>SUM($B5:$B1024)</f>
-        <v>2677</v>
-      </c>
-      <c r="C2" s="16">
+        <v>3125</v>
+      </c>
+      <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>446.00000000000011</v>
-      </c>
-      <c r="D2" s="16">
+        <v>-1.9999999999999929</v>
+      </c>
+      <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>446</v>
+        <v>-2</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>147.12601010101008</v>
+        <v>102.32601010101007</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>25.001010101010138</v>
+        <v>-19.798989898989873</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>-18.321212121212113</v>
+        <v>-63.121212121212125</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>70.931565656565681</v>
+        <v>26.13156565656567</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>25.001010101010138</v>
+        <v>-19.798989898989873</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>67.889898989898995</v>
+        <v>23.089898989898984</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>24.126010101010081</v>
+        <v>-20.67398989898993</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>25.001010101010138</v>
+        <v>-19.798989898989873</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
-        <v>1.1537878787878526</v>
+        <v>-43.646212121212159</v>
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>42.001010101010138</v>
+        <v>-2.7989898989898734</v>
       </c>
       <c r="Q2" s="13">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
@@ -869,7 +873,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E21" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E22" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -926,7 +930,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:Q21" si="2">$E6</f>
+        <f t="shared" ref="G6:Q22" si="2">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -1773,17 +1777,60 @@
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
+      <c r="A22" s="6">
+        <v>41481</v>
+      </c>
+      <c r="B22" s="15">
+        <v>448</v>
+      </c>
+      <c r="D22" s="3">
+        <v>10</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="0"/>
+        <v>44.8</v>
+      </c>
+      <c r="G22" s="13">
+        <f t="shared" si="2"/>
+        <v>44.8</v>
+      </c>
+      <c r="H22" s="13">
+        <f t="shared" si="2"/>
+        <v>44.8</v>
+      </c>
+      <c r="I22" s="13">
+        <f t="shared" si="2"/>
+        <v>44.8</v>
+      </c>
+      <c r="J22" s="13">
+        <f t="shared" si="2"/>
+        <v>44.8</v>
+      </c>
+      <c r="K22" s="13">
+        <f t="shared" si="2"/>
+        <v>44.8</v>
+      </c>
+      <c r="L22" s="13">
+        <f t="shared" si="2"/>
+        <v>44.8</v>
+      </c>
+      <c r="M22" s="13">
+        <f t="shared" si="2"/>
+        <v>44.8</v>
+      </c>
+      <c r="N22" s="13">
+        <f t="shared" si="2"/>
+        <v>44.8</v>
+      </c>
+      <c r="O22" s="13">
+        <f t="shared" si="2"/>
+        <v>44.8</v>
+      </c>
+      <c r="P22" s="13">
+        <f t="shared" si="2"/>
+        <v>44.8</v>
+      </c>
+      <c r="Q22" s="13"/>
       <c r="S22" s="3"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="消费" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
     <numFmt numFmtId="177" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="179" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="181" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -260,7 +260,7 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -710,15 +710,15 @@
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>-1.9999999999999929</v>
+        <v>398</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>-2</v>
+        <v>398</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>102.32601010101007</v>
+        <v>202.32601010101007</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
@@ -742,11 +742,11 @@
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>-20.67398989898993</v>
+        <v>79.32601010101007</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>-19.798989898989873</v>
+        <v>80.201010101010127</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
@@ -754,7 +754,7 @@
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>-2.7989898989898734</v>
+        <v>97.201010101010127</v>
       </c>
       <c r="Q2" s="13">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
@@ -6822,8 +6822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6898,11 +6898,11 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>3123</v>
+        <v>3523</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(H3:H1004)</f>
@@ -6926,11 +6926,11 @@
       </c>
       <c r="M2" s="3">
         <f t="shared" ref="M2:AD2" si="1">SUM(M3:M1004)</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N2" s="3">
         <f t="shared" si="1"/>
-        <v>315</v>
+        <v>415</v>
       </c>
       <c r="O2" s="3">
         <f t="shared" si="1"/>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="P2" s="3">
         <f t="shared" si="1"/>
-        <v>332</v>
+        <v>432</v>
       </c>
       <c r="Q2" s="3">
         <f t="shared" si="1"/>
@@ -7150,7 +7150,21 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
+      <c r="A14" s="6">
+        <v>41484</v>
+      </c>
+      <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="M14" s="3">
+        <v>100</v>
+      </c>
+      <c r="N14" s="3">
+        <v>100</v>
+      </c>
+      <c r="P14" s="3">
+        <v>100</v>
+      </c>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="消费" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF431"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -706,59 +706,59 @@
       </c>
       <c r="B2" s="16">
         <f>SUM($B5:$B1024)</f>
-        <v>3125</v>
+        <v>3302</v>
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>398</v>
+        <v>421.00000000000028</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>202.32601010101007</v>
+        <v>186.235101010101</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>-19.798989898989873</v>
+        <v>-35.889898989898938</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>-63.121212121212125</v>
+        <v>-79.21212121212119</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>26.13156565656567</v>
+        <v>110.0406565656566</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>-19.798989898989873</v>
+        <v>64.110101010101062</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>23.089898989898984</v>
+        <v>6.9989898989899189</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>79.32601010101007</v>
+        <v>63.235101010101005</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>80.201010101010127</v>
+        <v>64.110101010101062</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
-        <v>-43.646212121212159</v>
+        <v>-59.737121212121224</v>
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>97.201010101010127</v>
+        <v>81.110101010101062</v>
       </c>
       <c r="Q2" s="13">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
-        <v>36.089898989898991</v>
+        <v>19.998989898989905</v>
       </c>
       <c r="R2" s="3">
         <f>充值!R2-SUM(R3:R1004)</f>
@@ -873,7 +873,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E22" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E23" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -930,7 +930,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:Q22" si="2">$E6</f>
+        <f t="shared" ref="G6:Q23" si="2">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -1834,17 +1834,63 @@
       <c r="S22" s="3"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
+      <c r="A23" s="6">
+        <v>41484</v>
+      </c>
+      <c r="B23" s="15">
+        <v>177</v>
+      </c>
+      <c r="D23" s="3">
+        <v>11</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="0"/>
+        <v>16.09090909090909</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" si="2"/>
+        <v>16.09090909090909</v>
+      </c>
+      <c r="H23" s="13">
+        <f t="shared" si="2"/>
+        <v>16.09090909090909</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" si="2"/>
+        <v>16.09090909090909</v>
+      </c>
+      <c r="J23" s="13">
+        <f t="shared" si="2"/>
+        <v>16.09090909090909</v>
+      </c>
+      <c r="K23" s="13">
+        <f t="shared" si="2"/>
+        <v>16.09090909090909</v>
+      </c>
+      <c r="L23" s="13">
+        <f t="shared" si="2"/>
+        <v>16.09090909090909</v>
+      </c>
+      <c r="M23" s="13">
+        <f t="shared" si="2"/>
+        <v>16.09090909090909</v>
+      </c>
+      <c r="N23" s="13">
+        <f t="shared" si="2"/>
+        <v>16.09090909090909</v>
+      </c>
+      <c r="O23" s="13">
+        <f t="shared" si="2"/>
+        <v>16.09090909090909</v>
+      </c>
+      <c r="P23" s="13">
+        <f t="shared" si="2"/>
+        <v>16.09090909090909</v>
+      </c>
+      <c r="Q23" s="13">
+        <f t="shared" si="2"/>
+        <v>16.09090909090909</v>
+      </c>
       <c r="S23" s="3"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
@@ -6822,8 +6868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6898,7 +6944,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>3523</v>
+        <v>3723</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -6914,11 +6960,11 @@
       </c>
       <c r="J2" s="3">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>415</v>
       </c>
       <c r="K2" s="3">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>415</v>
       </c>
       <c r="L2" s="3">
         <f>SUM(L3:L1004)</f>
@@ -7154,6 +7200,12 @@
         <v>41484</v>
       </c>
       <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
       <c r="M14" s="3">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -567,7 +567,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="L1" sqref="L1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -706,47 +706,47 @@
       </c>
       <c r="B2" s="16">
         <f>SUM($B5:$B1024)</f>
-        <v>3302</v>
+        <v>3465</v>
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>421.00000000000028</v>
+        <v>558.00000000000011</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>421</v>
+        <v>558</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>186.235101010101</v>
+        <v>169.93510101010099</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>-35.889898989898938</v>
+        <v>-52.18989898989895</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>-79.21212121212119</v>
+        <v>104.4878787878788</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>110.0406565656566</v>
+        <v>93.740656565656593</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>64.110101010101062</v>
+        <v>47.81010101010105</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>6.9989898989899189</v>
+        <v>90.698989898989907</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>63.235101010101005</v>
+        <v>46.935101010100993</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>64.110101010101062</v>
+        <v>47.81010101010105</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
@@ -754,11 +754,11 @@
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>81.110101010101062</v>
+        <v>64.81010101010105</v>
       </c>
       <c r="Q2" s="13">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
-        <v>19.998989898989905</v>
+        <v>3.6989898989899075</v>
       </c>
       <c r="R2" s="3">
         <f>充值!R2-SUM(R3:R1004)</f>
@@ -873,7 +873,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E23" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E24" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -930,7 +930,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:Q23" si="2">$E6</f>
+        <f t="shared" ref="G6:Q24" si="2">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -1894,17 +1894,60 @@
       <c r="S23" s="3"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
+      <c r="A24" s="6">
+        <v>41485</v>
+      </c>
+      <c r="B24" s="15">
+        <v>163</v>
+      </c>
+      <c r="D24" s="3">
+        <v>10</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" si="0"/>
+        <v>16.3</v>
+      </c>
+      <c r="G24" s="13">
+        <f t="shared" si="2"/>
+        <v>16.3</v>
+      </c>
+      <c r="H24" s="13">
+        <f t="shared" si="2"/>
+        <v>16.3</v>
+      </c>
+      <c r="I24" s="13">
+        <f t="shared" si="2"/>
+        <v>16.3</v>
+      </c>
+      <c r="J24" s="13">
+        <f t="shared" si="2"/>
+        <v>16.3</v>
+      </c>
+      <c r="K24" s="13">
+        <f t="shared" si="2"/>
+        <v>16.3</v>
+      </c>
+      <c r="L24" s="13">
+        <f t="shared" si="2"/>
+        <v>16.3</v>
+      </c>
+      <c r="M24" s="13">
+        <f t="shared" si="2"/>
+        <v>16.3</v>
+      </c>
+      <c r="N24" s="13">
+        <f t="shared" si="2"/>
+        <v>16.3</v>
+      </c>
       <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
+      <c r="P24" s="13">
+        <f t="shared" si="2"/>
+        <v>16.3</v>
+      </c>
+      <c r="Q24" s="13">
+        <f t="shared" si="2"/>
+        <v>16.3</v>
+      </c>
       <c r="S24" s="3"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
@@ -6869,7 +6912,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6944,7 +6987,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>3723</v>
+        <v>4023</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -6956,7 +6999,7 @@
       </c>
       <c r="I2" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J2" s="3">
         <f t="shared" si="0"/>
@@ -6968,7 +7011,7 @@
       </c>
       <c r="L2" s="3">
         <f>SUM(L3:L1004)</f>
-        <v>331</v>
+        <v>431</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ref="M2:AD2" si="1">SUM(M3:M1004)</f>
@@ -7220,7 +7263,15 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
+      <c r="A15" s="6">
+        <v>41485</v>
+      </c>
+      <c r="I15" s="3">
+        <v>200</v>
+      </c>
+      <c r="L15" s="3">
+        <v>100</v>
+      </c>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -710,11 +710,11 @@
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>558.00000000000011</v>
+        <v>658.00000000000011</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>558</v>
+        <v>658</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
@@ -722,7 +722,7 @@
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>-52.18989898989895</v>
+        <v>47.81010101010105</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
@@ -6912,7 +6912,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6987,7 +6987,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>4023</v>
+        <v>4123</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(H3:H1004)</f>
-        <v>315</v>
+        <v>415</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" si="0"/>
@@ -7265,6 +7265,9 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>41485</v>
+      </c>
+      <c r="H15" s="3">
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>200</v>

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -567,7 +567,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -710,11 +710,11 @@
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>658.00000000000011</v>
+        <v>741.00000000000011</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>658</v>
+        <v>741</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
@@ -750,7 +750,7 @@
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
-        <v>-59.737121212121224</v>
+        <v>23.262878787878776</v>
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
@@ -6912,7 +6912,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6987,7 +6987,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>4123</v>
+        <v>4206</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -7023,7 +7023,7 @@
       </c>
       <c r="O2" s="3">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="P2" s="3">
         <f t="shared" si="1"/>
@@ -7274,6 +7274,9 @@
       </c>
       <c r="L15" s="3">
         <v>100</v>
+      </c>
+      <c r="O15" s="3">
+        <v>83</v>
       </c>
       <c r="Q15" s="3"/>
     </row>

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -567,7 +567,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -706,23 +706,23 @@
       </c>
       <c r="B2" s="16">
         <f>SUM($B5:$B1024)</f>
-        <v>3465</v>
+        <v>3595</v>
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>741.00000000000011</v>
+        <v>711.00000000000023</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>741</v>
+        <v>711</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>169.93510101010099</v>
+        <v>151.36367243867244</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>47.81010101010105</v>
+        <v>29.238672438672495</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
@@ -730,11 +730,11 @@
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>93.740656565656593</v>
+        <v>75.169227994228038</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>47.81010101010105</v>
+        <v>29.238672438672495</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
@@ -742,7 +742,7 @@
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>46.935101010100993</v>
+        <v>28.363672438672438</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
@@ -754,11 +754,11 @@
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>64.81010101010105</v>
+        <v>46.238672438672495</v>
       </c>
       <c r="Q2" s="13">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
-        <v>3.6989898989899075</v>
+        <v>85.127561327561338</v>
       </c>
       <c r="R2" s="3">
         <f>充值!R2-SUM(R3:R1004)</f>
@@ -873,7 +873,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E24" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E25" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -930,7 +930,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:Q24" si="2">$E6</f>
+        <f t="shared" ref="G6:Q25" si="2">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -1951,17 +1951,51 @@
       <c r="S24" s="3"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="A25" s="6">
+        <v>41486</v>
+      </c>
+      <c r="B25" s="15">
+        <v>130</v>
+      </c>
+      <c r="D25" s="3">
+        <v>7</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" si="0"/>
+        <v>18.571428571428573</v>
+      </c>
+      <c r="G25" s="13">
+        <f t="shared" si="2"/>
+        <v>18.571428571428573</v>
+      </c>
+      <c r="H25" s="13">
+        <f t="shared" si="2"/>
+        <v>18.571428571428573</v>
+      </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
+      <c r="J25" s="13">
+        <f t="shared" si="2"/>
+        <v>18.571428571428573</v>
+      </c>
+      <c r="K25" s="13">
+        <f t="shared" si="2"/>
+        <v>18.571428571428573</v>
+      </c>
       <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="M25" s="13">
+        <f t="shared" si="2"/>
+        <v>18.571428571428573</v>
+      </c>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
+      <c r="P25" s="13">
+        <f t="shared" si="2"/>
+        <v>18.571428571428573</v>
+      </c>
+      <c r="Q25" s="13">
+        <f t="shared" si="2"/>
+        <v>18.571428571428573</v>
+      </c>
       <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
@@ -6912,7 +6946,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6987,7 +7021,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>4206</v>
+        <v>4306</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -7031,7 +7065,7 @@
       </c>
       <c r="Q2" s="3">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R2" s="3">
         <f t="shared" si="1"/>
@@ -7281,8 +7315,12 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="Q16" s="3"/>
+      <c r="A16" s="6">
+        <v>41486</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -109,6 +109,10 @@
   <si>
     <t>谢一川</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人均</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -567,7 +571,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -593,7 +597,9 @@
       <c r="D1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10" t="str">
         <f>充值!G1</f>
@@ -706,27 +712,27 @@
       </c>
       <c r="B2" s="16">
         <f>SUM($B5:$B1024)</f>
-        <v>3595</v>
+        <v>3851</v>
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>711.00000000000023</v>
+        <v>655.00000000000023</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>711</v>
+        <v>655</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>151.36367243867244</v>
+        <v>121.08589466089467</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>29.238672438672495</v>
+        <v>15.460894660894724</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>104.4878787878788</v>
+        <v>74.210101010101027</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
@@ -734,19 +740,19 @@
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>29.238672438672495</v>
+        <v>98.960894660894724</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>90.698989898989907</v>
+        <v>60.421212121212136</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>28.363672438672438</v>
+        <v>-1.9141053391053333</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>47.81010101010105</v>
+        <v>17.532323232323279</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
@@ -754,11 +760,11 @@
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>46.238672438672495</v>
+        <v>115.96089466089472</v>
       </c>
       <c r="Q2" s="13">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
-        <v>85.127561327561338</v>
+        <v>54.849783549783552</v>
       </c>
       <c r="R2" s="3">
         <f>充值!R2-SUM(R3:R1004)</f>
@@ -821,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32" hidden="1" x14ac:dyDescent="0.15">
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -834,7 +840,7 @@
       <c r="P3" s="13"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:32" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -862,7 +868,7 @@
       <c r="P4" s="13"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>41458</v>
       </c>
@@ -873,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E25" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E27" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -915,7 +921,7 @@
       </c>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>41459</v>
       </c>
@@ -930,7 +936,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:Q25" si="2">$E6</f>
+        <f t="shared" ref="G6:Q27" si="2">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -968,7 +974,7 @@
       </c>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>41460</v>
       </c>
@@ -1018,7 +1024,7 @@
       </c>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:32" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>41463</v>
       </c>
@@ -1071,7 +1077,7 @@
       </c>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:32" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>41464</v>
       </c>
@@ -1127,7 +1133,7 @@
       </c>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>41465</v>
       </c>
@@ -1180,7 +1186,7 @@
       </c>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:32" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>41466</v>
       </c>
@@ -1230,7 +1236,7 @@
       </c>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:32" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>41467</v>
       </c>
@@ -1280,7 +1286,7 @@
       </c>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:32" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>41470</v>
       </c>
@@ -1330,7 +1336,7 @@
       </c>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>41471</v>
       </c>
@@ -1383,7 +1389,7 @@
       </c>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:32" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>41472</v>
       </c>
@@ -1439,7 +1445,7 @@
       </c>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:32" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>41473</v>
       </c>
@@ -1495,7 +1501,7 @@
       </c>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>41474</v>
       </c>
@@ -1551,7 +1557,7 @@
       </c>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>41477</v>
       </c>
@@ -1608,7 +1614,7 @@
       </c>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>41478</v>
       </c>
@@ -1662,7 +1668,7 @@
       </c>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>41479</v>
       </c>
@@ -1722,7 +1728,7 @@
       </c>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>41480</v>
       </c>
@@ -1776,7 +1782,7 @@
       </c>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>41481</v>
       </c>
@@ -1833,7 +1839,7 @@
       <c r="Q22" s="13"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>41484</v>
       </c>
@@ -1893,7 +1899,7 @@
       </c>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>41485</v>
       </c>
@@ -1950,7 +1956,7 @@
       </c>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>41486</v>
       </c>
@@ -1999,31 +2005,108 @@
       <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="A26" s="6">
+        <v>41487</v>
+      </c>
+      <c r="B26" s="15">
+        <v>124</v>
+      </c>
+      <c r="D26" s="3">
+        <v>9</v>
+      </c>
+      <c r="E26" s="14">
+        <f t="shared" si="0"/>
+        <v>13.777777777777779</v>
+      </c>
+      <c r="G26" s="13">
+        <f t="shared" si="2"/>
+        <v>13.777777777777779</v>
+      </c>
+      <c r="H26" s="13">
+        <f t="shared" si="2"/>
+        <v>13.777777777777779</v>
+      </c>
+      <c r="I26" s="13">
+        <f t="shared" si="2"/>
+        <v>13.777777777777779</v>
+      </c>
       <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
+      <c r="K26" s="13">
+        <f t="shared" si="2"/>
+        <v>13.777777777777779</v>
+      </c>
+      <c r="L26" s="13">
+        <f t="shared" si="2"/>
+        <v>13.777777777777779</v>
+      </c>
+      <c r="M26" s="13">
+        <f t="shared" si="2"/>
+        <v>13.777777777777779</v>
+      </c>
+      <c r="N26" s="13">
+        <f t="shared" si="2"/>
+        <v>13.777777777777779</v>
+      </c>
       <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
+      <c r="P26" s="13">
+        <f t="shared" si="2"/>
+        <v>13.777777777777779</v>
+      </c>
+      <c r="Q26" s="13">
+        <f t="shared" si="2"/>
+        <v>13.777777777777779</v>
+      </c>
       <c r="S26" s="3"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
-      <c r="G27" s="13"/>
+      <c r="A27" s="6">
+        <v>41488</v>
+      </c>
+      <c r="B27" s="15">
+        <v>132</v>
+      </c>
+      <c r="D27" s="3">
+        <v>8</v>
+      </c>
+      <c r="E27" s="14">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="G27" s="13">
+        <f t="shared" si="2"/>
+        <v>16.5</v>
+      </c>
       <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="I27" s="13">
+        <f t="shared" si="2"/>
+        <v>16.5</v>
+      </c>
       <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
+      <c r="K27" s="13">
+        <f t="shared" si="2"/>
+        <v>16.5</v>
+      </c>
+      <c r="L27" s="13">
+        <f t="shared" si="2"/>
+        <v>16.5</v>
+      </c>
+      <c r="M27" s="13">
+        <f t="shared" si="2"/>
+        <v>16.5</v>
+      </c>
+      <c r="N27" s="13">
+        <f t="shared" si="2"/>
+        <v>16.5</v>
+      </c>
       <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
+      <c r="P27" s="13">
+        <f t="shared" si="2"/>
+        <v>16.5</v>
+      </c>
+      <c r="Q27" s="13">
+        <f t="shared" si="2"/>
+        <v>16.5</v>
+      </c>
       <c r="S27" s="3"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
@@ -6946,7 +7029,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7021,7 +7104,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>4306</v>
+        <v>4506</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -7041,7 +7124,7 @@
       </c>
       <c r="K2" s="3">
         <f t="shared" si="0"/>
-        <v>415</v>
+        <v>515</v>
       </c>
       <c r="L2" s="3">
         <f>SUM(L3:L1004)</f>
@@ -7061,7 +7144,7 @@
       </c>
       <c r="P2" s="3">
         <f t="shared" si="1"/>
-        <v>432</v>
+        <v>532</v>
       </c>
       <c r="Q2" s="3">
         <f t="shared" si="1"/>
@@ -7323,7 +7406,15 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
+      <c r="A17" s="6">
+        <v>41487</v>
+      </c>
+      <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,35 +712,35 @@
       </c>
       <c r="B2" s="16">
         <f>SUM($B5:$B1024)</f>
-        <v>3851</v>
+        <v>3998</v>
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>655.00000000000023</v>
+        <v>508.00000000000045</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>655</v>
+        <v>508</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>121.08589466089467</v>
+        <v>104.75256132756135</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>15.460894660894724</v>
+        <v>-0.87243867243859086</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>74.210101010101027</v>
+        <v>57.876767676767713</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>75.169227994228038</v>
+        <v>58.835894660894724</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>98.960894660894724</v>
+        <v>82.627561327561409</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
@@ -748,11 +748,11 @@
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>-1.9141053391053333</v>
+        <v>-18.247438672438648</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>17.532323232323279</v>
+        <v>1.1989898989899643</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
@@ -760,11 +760,11 @@
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>115.96089466089472</v>
+        <v>99.627561327561409</v>
       </c>
       <c r="Q2" s="13">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
-        <v>54.849783549783552</v>
+        <v>38.51645021645021</v>
       </c>
       <c r="R2" s="3">
         <f>充值!R2-SUM(R3:R1004)</f>
@@ -879,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E27" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E28" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -936,7 +936,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:Q27" si="2">$E6</f>
+        <f t="shared" ref="G6:Q28" si="2">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -2110,17 +2110,57 @@
       <c r="S27" s="3"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
+      <c r="A28" s="6">
+        <v>41491</v>
+      </c>
+      <c r="B28" s="15">
+        <v>147</v>
+      </c>
+      <c r="D28" s="3">
+        <v>9</v>
+      </c>
+      <c r="E28" s="14">
+        <f t="shared" si="0"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="G28" s="13">
+        <f t="shared" si="2"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="H28" s="13">
+        <f t="shared" si="2"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="I28" s="13">
+        <f t="shared" si="2"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="J28" s="13">
+        <f t="shared" si="2"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="K28" s="13">
+        <f t="shared" si="2"/>
+        <v>16.333333333333332</v>
+      </c>
       <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
+      <c r="M28" s="13">
+        <f t="shared" si="2"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="N28" s="13">
+        <f t="shared" si="2"/>
+        <v>16.333333333333332</v>
+      </c>
       <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
+      <c r="P28" s="13">
+        <f t="shared" si="2"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="Q28" s="13">
+        <f t="shared" si="2"/>
+        <v>16.333333333333332</v>
+      </c>
       <c r="S28" s="3"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="消费" sheetId="1" r:id="rId1"/>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,43 +712,43 @@
       </c>
       <c r="B2" s="16">
         <f>SUM($B5:$B1024)</f>
-        <v>3998</v>
+        <v>4199</v>
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>508.00000000000045</v>
+        <v>407.00000000000023</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>508</v>
+        <v>407</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>104.75256132756135</v>
+        <v>84.65256132756133</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>-0.87243867243859086</v>
+        <v>79.027561327561386</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>57.876767676767713</v>
+        <v>37.77676767676769</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>58.835894660894724</v>
+        <v>38.735894660894701</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>82.627561327561409</v>
+        <v>62.527561327561386</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>60.421212121212136</v>
+        <v>40.321212121212113</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>-18.247438672438648</v>
+        <v>-38.34743867243867</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
@@ -756,15 +756,15 @@
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
-        <v>23.262878787878776</v>
+        <v>3.1628787878787534</v>
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>99.627561327561409</v>
+        <v>79.527561327561386</v>
       </c>
       <c r="Q2" s="13">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
-        <v>38.51645021645021</v>
+        <v>18.416450216450215</v>
       </c>
       <c r="R2" s="3">
         <f>充值!R2-SUM(R3:R1004)</f>
@@ -879,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E28" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E29" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -936,7 +936,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:Q28" si="2">$E6</f>
+        <f t="shared" ref="G6:Q29" si="2">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -2164,17 +2164,60 @@
       <c r="S28" s="3"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A29" s="6"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
+      <c r="A29" s="6">
+        <v>41492</v>
+      </c>
+      <c r="B29" s="15">
+        <v>201</v>
+      </c>
+      <c r="D29" s="3">
+        <v>10</v>
+      </c>
+      <c r="E29" s="14">
+        <f t="shared" si="0"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G29" s="13">
+        <f t="shared" si="2"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H29" s="13">
+        <f t="shared" si="2"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I29" s="13">
+        <f t="shared" si="2"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J29" s="13">
+        <f t="shared" si="2"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="K29" s="13">
+        <f t="shared" si="2"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="L29" s="13">
+        <f t="shared" si="2"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="M29" s="13">
+        <f t="shared" si="2"/>
+        <v>20.100000000000001</v>
+      </c>
       <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
+      <c r="O29" s="13">
+        <f t="shared" si="2"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="P29" s="13">
+        <f t="shared" si="2"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="Q29" s="13">
+        <f t="shared" si="2"/>
+        <v>20.100000000000001</v>
+      </c>
       <c r="S29" s="3"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
@@ -7068,8 +7111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7144,7 +7187,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>4506</v>
+        <v>4606</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -7152,7 +7195,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(H3:H1004)</f>
-        <v>415</v>
+        <v>515</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" si="0"/>
@@ -7458,7 +7501,12 @@
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
+      <c r="A18" s="6">
+        <v>41492</v>
+      </c>
+      <c r="H18" s="3">
+        <v>100</v>
+      </c>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -716,11 +716,11 @@
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>407.00000000000023</v>
+        <v>607.00000000000034</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>407</v>
+        <v>607</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
@@ -748,7 +748,7 @@
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>-38.34743867243867</v>
+        <v>161.65256132756133</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
@@ -7112,7 +7112,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7187,7 +7187,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>4606</v>
+        <v>4806</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="M2" s="3">
         <f t="shared" ref="M2:AD2" si="1">SUM(M3:M1004)</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N2" s="3">
         <f t="shared" si="1"/>
@@ -7510,7 +7510,12 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
+      <c r="A19" s="6">
+        <v>41493</v>
+      </c>
+      <c r="M19" s="3">
+        <v>200</v>
+      </c>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="消费" sheetId="1" r:id="rId1"/>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF431"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,35 +712,35 @@
       </c>
       <c r="B2" s="16">
         <f>SUM($B5:$B1024)</f>
-        <v>4199</v>
+        <v>4353</v>
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>607.00000000000034</v>
+        <v>453.00000000000045</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>607</v>
+        <v>453</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>84.65256132756133</v>
+        <v>67.541450216450244</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>79.027561327561386</v>
+        <v>61.916450216450301</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>37.77676767676769</v>
+        <v>20.665656565656604</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>38.735894660894701</v>
+        <v>21.624783549783615</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>62.527561327561386</v>
+        <v>45.416450216450301</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
@@ -748,19 +748,19 @@
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>161.65256132756133</v>
+        <v>144.54145021645024</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>1.1989898989899643</v>
+        <v>-15.912121212121122</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
-        <v>3.1628787878787534</v>
+        <v>-13.948232323232332</v>
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>79.527561327561386</v>
+        <v>62.416450216450301</v>
       </c>
       <c r="Q2" s="13">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
@@ -879,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E29" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E30" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -936,7 +936,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:Q29" si="2">$E6</f>
+        <f t="shared" ref="G6:Q30" si="2">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -2221,17 +2221,57 @@
       <c r="S29" s="3"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A30" s="6"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
+      <c r="A30" s="6">
+        <v>41493</v>
+      </c>
+      <c r="B30" s="15">
+        <v>154</v>
+      </c>
+      <c r="D30" s="3">
+        <v>9</v>
+      </c>
+      <c r="E30" s="14">
+        <f t="shared" si="0"/>
+        <v>17.111111111111111</v>
+      </c>
+      <c r="G30" s="13">
+        <f t="shared" si="2"/>
+        <v>17.111111111111111</v>
+      </c>
+      <c r="H30" s="13">
+        <f t="shared" si="2"/>
+        <v>17.111111111111111</v>
+      </c>
+      <c r="I30" s="13">
+        <f t="shared" si="2"/>
+        <v>17.111111111111111</v>
+      </c>
+      <c r="J30" s="13">
+        <f t="shared" si="2"/>
+        <v>17.111111111111111</v>
+      </c>
+      <c r="K30" s="13">
+        <f t="shared" si="2"/>
+        <v>17.111111111111111</v>
+      </c>
       <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
+      <c r="M30" s="13">
+        <f t="shared" si="2"/>
+        <v>17.111111111111111</v>
+      </c>
+      <c r="N30" s="13">
+        <f t="shared" si="2"/>
+        <v>17.111111111111111</v>
+      </c>
+      <c r="O30" s="13">
+        <f t="shared" si="2"/>
+        <v>17.111111111111111</v>
+      </c>
+      <c r="P30" s="13">
+        <f t="shared" si="2"/>
+        <v>17.111111111111111</v>
+      </c>
+      <c r="Q30" s="13"/>
       <c r="S30" s="3"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
@@ -7111,7 +7151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection sqref="A1:Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,59 +712,59 @@
       </c>
       <c r="B2" s="16">
         <f>SUM($B5:$B1024)</f>
-        <v>4353</v>
+        <v>4494</v>
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>453.00000000000045</v>
+        <v>312.00000000000057</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>453</v>
+        <v>312</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>67.541450216450244</v>
+        <v>54.723268398268431</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>61.916450216450301</v>
+        <v>49.098268398268488</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>20.665656565656604</v>
+        <v>7.8474747474747915</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>21.624783549783615</v>
+        <v>8.8066017316018019</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>45.416450216450301</v>
+        <v>32.598268398268488</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>40.321212121212113</v>
+        <v>27.5030303030303</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>144.54145021645024</v>
+        <v>131.72326839826843</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>-15.912121212121122</v>
+        <v>-28.730303030302935</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
-        <v>-13.948232323232332</v>
+        <v>-26.766414141414145</v>
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>62.416450216450301</v>
+        <v>49.598268398268488</v>
       </c>
       <c r="Q2" s="13">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
-        <v>18.416450216450215</v>
+        <v>5.5982683982684023</v>
       </c>
       <c r="R2" s="3">
         <f>充值!R2-SUM(R3:R1004)</f>
@@ -879,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E30" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E31" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -936,7 +936,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:Q30" si="2">$E6</f>
+        <f t="shared" ref="G6:Q31" si="2">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>41487</v>
       </c>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>41488</v>
       </c>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>41491</v>
       </c>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>41492</v>
       </c>
@@ -2275,17 +2275,63 @@
       <c r="S30" s="3"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A31" s="6"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
+      <c r="A31" s="6">
+        <v>41494</v>
+      </c>
+      <c r="B31" s="15">
+        <v>141</v>
+      </c>
+      <c r="D31" s="3">
+        <v>11</v>
+      </c>
+      <c r="E31" s="14">
+        <f t="shared" si="0"/>
+        <v>12.818181818181818</v>
+      </c>
+      <c r="G31" s="13">
+        <f t="shared" si="2"/>
+        <v>12.818181818181818</v>
+      </c>
+      <c r="H31" s="13">
+        <f t="shared" si="2"/>
+        <v>12.818181818181818</v>
+      </c>
+      <c r="I31" s="13">
+        <f t="shared" si="2"/>
+        <v>12.818181818181818</v>
+      </c>
+      <c r="J31" s="13">
+        <f t="shared" si="2"/>
+        <v>12.818181818181818</v>
+      </c>
+      <c r="K31" s="13">
+        <f t="shared" si="2"/>
+        <v>12.818181818181818</v>
+      </c>
+      <c r="L31" s="13">
+        <f t="shared" si="2"/>
+        <v>12.818181818181818</v>
+      </c>
+      <c r="M31" s="13">
+        <f t="shared" si="2"/>
+        <v>12.818181818181818</v>
+      </c>
+      <c r="N31" s="13">
+        <f t="shared" si="2"/>
+        <v>12.818181818181818</v>
+      </c>
+      <c r="O31" s="13">
+        <f t="shared" si="2"/>
+        <v>12.818181818181818</v>
+      </c>
+      <c r="P31" s="13">
+        <f t="shared" si="2"/>
+        <v>12.818181818181818</v>
+      </c>
+      <c r="Q31" s="13">
+        <f t="shared" si="2"/>
+        <v>12.818181818181818</v>
+      </c>
       <c r="S31" s="3"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:Q31"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -716,11 +716,11 @@
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>312.00000000000057</v>
+        <v>512.00000000000057</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>312</v>
+        <v>512</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
@@ -752,7 +752,7 @@
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>-28.730303030302935</v>
+        <v>171.26969696969707</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
-        <v>41494</v>
+        <v>41495</v>
       </c>
       <c r="B31" s="15">
         <v>141</v>
@@ -7198,7 +7198,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>4806</v>
+        <v>5006</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -7305,7 +7305,7 @@
       </c>
       <c r="N2" s="3">
         <f t="shared" si="1"/>
-        <v>415</v>
+        <v>615</v>
       </c>
       <c r="O2" s="3">
         <f t="shared" si="1"/>
@@ -7605,7 +7605,12 @@
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
+      <c r="A20" s="6">
+        <v>41495</v>
+      </c>
+      <c r="N20" s="3">
+        <v>200</v>
+      </c>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,35 +712,35 @@
       </c>
       <c r="B2" s="16">
         <f>SUM($B5:$B1024)</f>
-        <v>4494</v>
+        <v>4649</v>
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>512.00000000000057</v>
+        <v>357.00000000000045</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>54.723268398268431</v>
+        <v>37.501046176046202</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>49.098268398268488</v>
+        <v>31.876046176046259</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>7.8474747474747915</v>
+        <v>-9.3747474747474371</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>8.8066017316018019</v>
+        <v>-8.4156204906204266</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>32.598268398268488</v>
+        <v>15.376046176046259</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
@@ -748,11 +748,11 @@
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>131.72326839826843</v>
+        <v>114.5010461760462</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>171.26969696969707</v>
+        <v>154.04747474747484</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
@@ -760,11 +760,11 @@
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>49.598268398268488</v>
+        <v>32.376046176046259</v>
       </c>
       <c r="Q2" s="13">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
-        <v>5.5982683982684023</v>
+        <v>-11.623953823953826</v>
       </c>
       <c r="R2" s="3">
         <f>充值!R2-SUM(R3:R1004)</f>
@@ -879,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E31" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E32" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -936,7 +936,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:Q31" si="2">$E6</f>
+        <f t="shared" ref="G6:Q32" si="2">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -2335,17 +2335,57 @@
       <c r="S31" s="3"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A32" s="6"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
+      <c r="A32" s="6">
+        <v>41499</v>
+      </c>
+      <c r="B32" s="15">
+        <v>155</v>
+      </c>
+      <c r="D32" s="3">
+        <v>9</v>
+      </c>
+      <c r="E32" s="14">
+        <f t="shared" si="0"/>
+        <v>17.222222222222221</v>
+      </c>
+      <c r="G32" s="13">
+        <f t="shared" si="2"/>
+        <v>17.222222222222221</v>
+      </c>
+      <c r="H32" s="13">
+        <f t="shared" si="2"/>
+        <v>17.222222222222221</v>
+      </c>
+      <c r="I32" s="13">
+        <f t="shared" si="2"/>
+        <v>17.222222222222221</v>
+      </c>
+      <c r="J32" s="13">
+        <f t="shared" si="2"/>
+        <v>17.222222222222221</v>
+      </c>
+      <c r="K32" s="13">
+        <f t="shared" si="2"/>
+        <v>17.222222222222221</v>
+      </c>
       <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
+      <c r="M32" s="13">
+        <f t="shared" si="2"/>
+        <v>17.222222222222221</v>
+      </c>
+      <c r="N32" s="13">
+        <f t="shared" si="2"/>
+        <v>17.222222222222221</v>
+      </c>
       <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
+      <c r="P32" s="13">
+        <f t="shared" si="2"/>
+        <v>17.222222222222221</v>
+      </c>
+      <c r="Q32" s="13">
+        <f t="shared" si="2"/>
+        <v>17.222222222222221</v>
+      </c>
       <c r="S32" s="3"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="消费" sheetId="1" r:id="rId1"/>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -716,11 +716,11 @@
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>357.00000000000045</v>
+        <v>557.00000000000045</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>357</v>
+        <v>557</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
@@ -760,11 +760,11 @@
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>32.376046176046259</v>
+        <v>132.37604617604626</v>
       </c>
       <c r="Q2" s="13">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
-        <v>-11.623953823953826</v>
+        <v>88.376046176046174</v>
       </c>
       <c r="R2" s="3">
         <f>充值!R2-SUM(R3:R1004)</f>
@@ -7237,8 +7237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7313,7 +7313,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>5006</v>
+        <v>5206</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -7353,11 +7353,11 @@
       </c>
       <c r="P2" s="3">
         <f t="shared" si="1"/>
-        <v>532</v>
+        <v>632</v>
       </c>
       <c r="Q2" s="3">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R2" s="3">
         <f t="shared" si="1"/>
@@ -7654,8 +7654,15 @@
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="Q21" s="3"/>
+      <c r="A21" s="6">
+        <v>41499</v>
+      </c>
+      <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="消费" sheetId="1" r:id="rId1"/>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF431"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,47 +712,47 @@
       </c>
       <c r="B2" s="16">
         <f>SUM($B5:$B1024)</f>
-        <v>4649</v>
+        <v>4903</v>
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>557.00000000000045</v>
+        <v>403.00000000000034</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>557</v>
+        <v>403</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>37.501046176046202</v>
+        <v>4.5010461760462022</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>31.876046176046259</v>
+        <v>17.876046176046259</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>-9.3747474747474371</v>
+        <v>-23.374747474747437</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>-8.4156204906204266</v>
+        <v>-22.415620490620427</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>15.376046176046259</v>
+        <v>82.376046176046202</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>27.5030303030303</v>
+        <v>13.5030303030303</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>114.5010461760462</v>
+        <v>81.501046176046202</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>154.04747474747484</v>
+        <v>121.04747474747484</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
@@ -760,11 +760,11 @@
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>132.37604617604626</v>
+        <v>99.376046176046202</v>
       </c>
       <c r="Q2" s="13">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
-        <v>88.376046176046174</v>
+        <v>55.376046176046174</v>
       </c>
       <c r="R2" s="3">
         <f>充值!R2-SUM(R3:R1004)</f>
@@ -879,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E32" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E34" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -936,7 +936,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:Q32" si="2">$E6</f>
+        <f t="shared" ref="G6:Q34" si="2">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>41493</v>
       </c>
@@ -2274,7 +2274,7 @@
       <c r="Q30" s="13"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>41495</v>
       </c>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>41499</v>
       </c>
@@ -2389,31 +2389,105 @@
       <c r="S32" s="3"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A33" s="6"/>
-      <c r="G33" s="13"/>
+      <c r="A33" s="6">
+        <v>41500</v>
+      </c>
+      <c r="B33" s="15">
+        <v>114</v>
+      </c>
+      <c r="D33" s="3">
+        <v>6</v>
+      </c>
+      <c r="E33" s="14">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G33" s="13">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
+      <c r="K33" s="13">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
       <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
+      <c r="M33" s="13">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N33" s="13">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
       <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
+      <c r="P33" s="13">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="Q33" s="13">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
       <c r="S33" s="3"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A34" s="6"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
+      <c r="A34" s="6">
+        <v>41502</v>
+      </c>
+      <c r="B34" s="15">
+        <v>140</v>
+      </c>
+      <c r="D34" s="3">
+        <v>10</v>
+      </c>
+      <c r="E34" s="14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G34" s="13">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="H34" s="13">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="I34" s="13">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="J34" s="13">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="K34" s="13">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="L34" s="13">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="M34" s="13">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N34" s="13">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
       <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
+      <c r="P34" s="13">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="Q34" s="13">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
       <c r="S34" s="3"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.15">
@@ -7237,8 +7311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7313,7 +7387,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>5206</v>
+        <v>5306</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -7333,7 +7407,7 @@
       </c>
       <c r="K2" s="3">
         <f t="shared" si="0"/>
-        <v>515</v>
+        <v>615</v>
       </c>
       <c r="L2" s="3">
         <f>SUM(L3:L1004)</f>
@@ -7665,7 +7739,12 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
+      <c r="A22" s="6">
+        <v>41501</v>
+      </c>
+      <c r="K22" s="3">
+        <v>100</v>
+      </c>
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:Q34"/>
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,15 +712,15 @@
       </c>
       <c r="B2" s="16">
         <f>SUM($B5:$B1024)</f>
-        <v>4903</v>
+        <v>4997</v>
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>403.00000000000034</v>
+        <v>509.0000000000004</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>403</v>
+        <v>509</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
@@ -728,31 +728,31 @@
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>17.876046176046259</v>
+        <v>6.126046176046259</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>-23.374747474747437</v>
+        <v>-35.124747474747437</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>-22.415620490620427</v>
+        <v>-34.165620490620427</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>82.376046176046202</v>
+        <v>70.626046176046202</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>13.5030303030303</v>
+        <v>201.7530303030303</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>81.501046176046202</v>
+        <v>69.751046176046202</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>121.04747474747484</v>
+        <v>109.29747474747484</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
@@ -764,7 +764,7 @@
       </c>
       <c r="Q2" s="13">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
-        <v>55.376046176046174</v>
+        <v>43.626046176046202</v>
       </c>
       <c r="R2" s="3">
         <f>充值!R2-SUM(R3:R1004)</f>
@@ -879,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E34" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E35" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -936,7 +936,7 @@
         <v>14.555555555555555</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:Q34" si="2">$E6</f>
+        <f t="shared" ref="G6:Q35" si="2">$E6</f>
         <v>14.555555555555555</v>
       </c>
       <c r="H6" s="13">
@@ -2491,17 +2491,54 @@
       <c r="S34" s="3"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A35" s="6"/>
+      <c r="A35" s="6">
+        <v>41505</v>
+      </c>
+      <c r="B35" s="15">
+        <v>94</v>
+      </c>
+      <c r="D35" s="3">
+        <v>8</v>
+      </c>
+      <c r="E35" s="14">
+        <f t="shared" si="0"/>
+        <v>11.75</v>
+      </c>
       <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
+      <c r="H35" s="13">
+        <f t="shared" si="2"/>
+        <v>11.75</v>
+      </c>
+      <c r="I35" s="13">
+        <f t="shared" si="2"/>
+        <v>11.75</v>
+      </c>
+      <c r="J35" s="13">
+        <f t="shared" si="2"/>
+        <v>11.75</v>
+      </c>
+      <c r="K35" s="13">
+        <f t="shared" si="2"/>
+        <v>11.75</v>
+      </c>
+      <c r="L35" s="13">
+        <f t="shared" ref="L35:Q35" si="3">$E35</f>
+        <v>11.75</v>
+      </c>
+      <c r="M35" s="13">
+        <f t="shared" si="3"/>
+        <v>11.75</v>
+      </c>
+      <c r="N35" s="13">
+        <f t="shared" si="3"/>
+        <v>11.75</v>
+      </c>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
+      <c r="Q35" s="13">
+        <f t="shared" si="3"/>
+        <v>11.75</v>
+      </c>
       <c r="S35" s="3"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.15">
@@ -7312,7 +7349,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7387,7 +7424,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>5306</v>
+        <v>5506</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -7411,7 +7448,7 @@
       </c>
       <c r="L2" s="3">
         <f>SUM(L3:L1004)</f>
-        <v>431</v>
+        <v>631</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ref="M2:AD2" si="1">SUM(M3:M1004)</f>
@@ -7748,7 +7785,12 @@
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
+      <c r="A23" s="6">
+        <v>41505</v>
+      </c>
+      <c r="L23" s="3">
+        <v>200</v>
+      </c>
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,47 +712,47 @@
       </c>
       <c r="B2" s="16">
         <f>SUM($B5:$B1024)</f>
-        <v>4997</v>
+        <v>5406</v>
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>509.0000000000004</v>
+        <v>200.0000000000004</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>509</v>
+        <v>200</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>4.5010461760462022</v>
+        <v>-46.516810966810908</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>6.126046176046259</v>
+        <v>-10.873953823953798</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>-35.124747474747437</v>
+        <v>-52.999747474747437</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>-34.165620490620427</v>
+        <v>32.691522366522406</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>70.626046176046202</v>
+        <v>19.608189033189092</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>201.7530303030303</v>
+        <v>166.8780303030303</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>69.751046176046202</v>
+        <v>18.733189033189092</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>109.29747474747484</v>
+        <v>58.27961760461767</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
@@ -760,11 +760,11 @@
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>99.376046176046202</v>
+        <v>48.358189033189092</v>
       </c>
       <c r="Q2" s="13">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
-        <v>43.626046176046202</v>
+        <v>-7.3918109668109651</v>
       </c>
       <c r="R2" s="3">
         <f>充值!R2-SUM(R3:R1004)</f>
@@ -879,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E35" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E38" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>41500</v>
       </c>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>41502</v>
       </c>
@@ -2542,45 +2542,156 @@
       <c r="S35" s="3"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A36" s="6"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="A36" s="6">
+        <v>41506</v>
+      </c>
+      <c r="B36" s="15">
+        <v>153</v>
+      </c>
+      <c r="D36" s="3">
+        <v>9</v>
+      </c>
+      <c r="E36" s="14">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G36" s="13">
+        <f t="shared" ref="G36:Q38" si="4">$E36</f>
+        <v>17</v>
+      </c>
+      <c r="H36" s="13">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
       <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
+      <c r="J36" s="13">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="K36" s="13">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="L36" s="13">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="M36" s="13">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="N36" s="13">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
       <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
+      <c r="P36" s="13">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="Q36" s="13">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
       <c r="S36" s="3"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A37" s="6"/>
-      <c r="G37" s="13"/>
+      <c r="A37" s="6">
+        <v>41507</v>
+      </c>
+      <c r="B37" s="15">
+        <v>143</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8</v>
+      </c>
+      <c r="E37" s="14">
+        <f t="shared" si="0"/>
+        <v>17.875</v>
+      </c>
+      <c r="G37" s="13">
+        <f t="shared" si="4"/>
+        <v>17.875</v>
+      </c>
       <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
+      <c r="I37" s="13">
+        <f t="shared" si="4"/>
+        <v>17.875</v>
+      </c>
       <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
+      <c r="K37" s="13">
+        <f t="shared" si="4"/>
+        <v>17.875</v>
+      </c>
+      <c r="L37" s="13">
+        <f t="shared" si="4"/>
+        <v>17.875</v>
+      </c>
+      <c r="M37" s="13">
+        <f t="shared" si="4"/>
+        <v>17.875</v>
+      </c>
+      <c r="N37" s="13">
+        <f t="shared" si="4"/>
+        <v>17.875</v>
+      </c>
       <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
+      <c r="P37" s="13">
+        <f t="shared" si="4"/>
+        <v>17.875</v>
+      </c>
+      <c r="Q37" s="13">
+        <f t="shared" si="4"/>
+        <v>17.875</v>
+      </c>
       <c r="S37" s="3"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A38" s="6"/>
-      <c r="G38" s="13"/>
+      <c r="A38" s="6">
+        <v>41508</v>
+      </c>
+      <c r="B38" s="15">
+        <v>113</v>
+      </c>
+      <c r="D38" s="3">
+        <v>7</v>
+      </c>
+      <c r="E38" s="14">
+        <f t="shared" si="0"/>
+        <v>16.142857142857142</v>
+      </c>
+      <c r="G38" s="13">
+        <f t="shared" si="4"/>
+        <v>16.142857142857142</v>
+      </c>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
+      <c r="J38" s="13">
+        <f t="shared" si="4"/>
+        <v>16.142857142857142</v>
+      </c>
+      <c r="K38" s="13">
+        <f t="shared" si="4"/>
+        <v>16.142857142857142</v>
+      </c>
       <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
+      <c r="M38" s="13">
+        <f t="shared" si="4"/>
+        <v>16.142857142857142</v>
+      </c>
+      <c r="N38" s="13">
+        <f t="shared" si="4"/>
+        <v>16.142857142857142</v>
+      </c>
       <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
+      <c r="P38" s="13">
+        <f t="shared" si="4"/>
+        <v>16.142857142857142</v>
+      </c>
+      <c r="Q38" s="13">
+        <f t="shared" si="4"/>
+        <v>16.142857142857142</v>
+      </c>
       <c r="S38" s="3"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.15">
@@ -7349,7 +7460,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7424,7 +7535,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>5506</v>
+        <v>5606</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -7440,7 +7551,7 @@
       </c>
       <c r="J2" s="3">
         <f t="shared" si="0"/>
-        <v>415</v>
+        <v>515</v>
       </c>
       <c r="K2" s="3">
         <f t="shared" si="0"/>
@@ -7794,7 +7905,12 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
+      <c r="A24" s="6">
+        <v>41508</v>
+      </c>
+      <c r="J24" s="3">
+        <v>100</v>
+      </c>
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,47 +712,47 @@
       </c>
       <c r="B2" s="16">
         <f>SUM($B5:$B1024)</f>
-        <v>5406</v>
+        <v>5722</v>
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>200.0000000000004</v>
+        <v>84.000000000000171</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>-46.516810966810908</v>
+        <v>-82.216810966810954</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>-10.873953823953798</v>
+        <v>-46.573953823953843</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>-52.999747474747437</v>
+        <v>-68.199747474747426</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>32.691522366522406</v>
+        <v>-3.0084776334775825</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>19.608189033189092</v>
+        <v>-16.091810966810954</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>166.8780303030303</v>
+        <v>131.17803030303031</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>18.733189033189092</v>
+        <v>-16.966810966810954</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>58.27961760461767</v>
+        <v>22.579617604617624</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
@@ -760,11 +760,11 @@
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>48.358189033189092</v>
+        <v>112.65818903318905</v>
       </c>
       <c r="Q2" s="13">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
-        <v>-7.3918109668109651</v>
+        <v>77.408189033189046</v>
       </c>
       <c r="R2" s="3">
         <f>充值!R2-SUM(R3:R1004)</f>
@@ -879,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E38" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E40" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>41505</v>
       </c>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>41506</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>17</v>
       </c>
       <c r="G36" s="13">
-        <f t="shared" ref="G36:Q38" si="4">$E36</f>
+        <f t="shared" ref="G36:Q40" si="4">$E36</f>
         <v>17</v>
       </c>
       <c r="H36" s="13">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>41507</v>
       </c>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>41508</v>
       </c>
@@ -2695,31 +2695,111 @@
       <c r="S38" s="3"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A39" s="6"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="A39" s="6">
+        <v>41509</v>
+      </c>
+      <c r="B39" s="15">
+        <v>164</v>
+      </c>
+      <c r="D39" s="3">
+        <v>8</v>
+      </c>
+      <c r="E39" s="14">
+        <f t="shared" si="0"/>
+        <v>20.5</v>
+      </c>
+      <c r="G39" s="13">
+        <f t="shared" si="4"/>
+        <v>20.5</v>
+      </c>
+      <c r="H39" s="13">
+        <f t="shared" si="4"/>
+        <v>20.5</v>
+      </c>
       <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
+      <c r="J39" s="13">
+        <f t="shared" si="4"/>
+        <v>20.5</v>
+      </c>
+      <c r="K39" s="13">
+        <f t="shared" si="4"/>
+        <v>20.5</v>
+      </c>
+      <c r="L39" s="13">
+        <f t="shared" si="4"/>
+        <v>20.5</v>
+      </c>
+      <c r="M39" s="13">
+        <f t="shared" si="4"/>
+        <v>20.5</v>
+      </c>
+      <c r="N39" s="13">
+        <f t="shared" si="4"/>
+        <v>20.5</v>
+      </c>
       <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
+      <c r="P39" s="13">
+        <f t="shared" si="4"/>
+        <v>20.5</v>
+      </c>
+      <c r="Q39" s="13"/>
       <c r="S39" s="3"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A40" s="6"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
+      <c r="A40" s="6">
+        <v>41512</v>
+      </c>
+      <c r="B40" s="15">
+        <v>152</v>
+      </c>
+      <c r="D40" s="3">
+        <v>10</v>
+      </c>
+      <c r="E40" s="14">
+        <f t="shared" si="0"/>
+        <v>15.2</v>
+      </c>
+      <c r="G40" s="13">
+        <f t="shared" si="4"/>
+        <v>15.2</v>
+      </c>
+      <c r="H40" s="13">
+        <f t="shared" si="4"/>
+        <v>15.2</v>
+      </c>
+      <c r="I40" s="13">
+        <f t="shared" si="4"/>
+        <v>15.2</v>
+      </c>
+      <c r="J40" s="13">
+        <f t="shared" si="4"/>
+        <v>15.2</v>
+      </c>
+      <c r="K40" s="13">
+        <f t="shared" si="4"/>
+        <v>15.2</v>
+      </c>
+      <c r="L40" s="13">
+        <f t="shared" si="4"/>
+        <v>15.2</v>
+      </c>
+      <c r="M40" s="13">
+        <f t="shared" si="4"/>
+        <v>15.2</v>
+      </c>
+      <c r="N40" s="13">
+        <f t="shared" si="4"/>
+        <v>15.2</v>
+      </c>
       <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
+      <c r="P40" s="13">
+        <f t="shared" si="4"/>
+        <v>15.2</v>
+      </c>
+      <c r="Q40" s="13">
+        <f t="shared" si="4"/>
+        <v>15.2</v>
+      </c>
       <c r="S40" s="3"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.15">
@@ -7460,7 +7540,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7535,7 +7615,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>5606</v>
+        <v>5806</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -7575,11 +7655,11 @@
       </c>
       <c r="P2" s="3">
         <f t="shared" si="1"/>
-        <v>632</v>
+        <v>732</v>
       </c>
       <c r="Q2" s="3">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R2" s="3">
         <f t="shared" si="1"/>
@@ -7646,7 +7726,7 @@
       <c r="D4" s="1"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>41459</v>
       </c>
@@ -7679,7 +7759,7 @@
       </c>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>41464</v>
       </c>
@@ -7688,7 +7768,7 @@
       </c>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>41465</v>
       </c>
@@ -7715,7 +7795,7 @@
       </c>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>41467</v>
       </c>
@@ -7724,7 +7804,7 @@
       </c>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>41471</v>
       </c>
@@ -7733,7 +7813,7 @@
       </c>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>41472</v>
       </c>
@@ -7742,7 +7822,7 @@
       </c>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>41473</v>
       </c>
@@ -7757,7 +7837,7 @@
       </c>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>41474</v>
       </c>
@@ -7766,7 +7846,7 @@
       </c>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>41477</v>
       </c>
@@ -7786,7 +7866,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>41484</v>
       </c>
@@ -7810,7 +7890,7 @@
       </c>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>41485</v>
       </c>
@@ -7828,7 +7908,7 @@
       </c>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>41486</v>
       </c>
@@ -7836,7 +7916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>41487</v>
       </c>
@@ -7848,7 +7928,7 @@
       </c>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>41492</v>
       </c>
@@ -7857,7 +7937,7 @@
       </c>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>41493</v>
       </c>
@@ -7866,7 +7946,7 @@
       </c>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>41495</v>
       </c>
@@ -7875,7 +7955,7 @@
       </c>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>41499</v>
       </c>
@@ -7886,7 +7966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>41501</v>
       </c>
@@ -7895,7 +7975,7 @@
       </c>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>41505</v>
       </c>
@@ -7914,8 +7994,15 @@
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
-      <c r="Q25" s="3"/>
+      <c r="A25" s="6">
+        <v>41512</v>
+      </c>
+      <c r="P25" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,19 +712,19 @@
       </c>
       <c r="B2" s="16">
         <f>SUM($B5:$B1024)</f>
-        <v>5722</v>
+        <v>5873</v>
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>84.000000000000171</v>
+        <v>233.00000000000017</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>-82.216810966810954</v>
+        <v>98.908189033189046</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
@@ -732,15 +732,15 @@
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>-68.199747474747426</v>
+        <v>-87.074747474747426</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>-3.0084776334775825</v>
+        <v>-21.883477633477582</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>-16.091810966810954</v>
+        <v>65.033189033189046</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
@@ -748,11 +748,11 @@
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>-16.966810966810954</v>
+        <v>-35.841810966810954</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>22.579617604617624</v>
+        <v>3.7046176046176242</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
@@ -760,11 +760,11 @@
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>112.65818903318905</v>
+        <v>93.783189033189046</v>
       </c>
       <c r="Q2" s="13">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
-        <v>77.408189033189046</v>
+        <v>58.533189033189046</v>
       </c>
       <c r="R2" s="3">
         <f>充值!R2-SUM(R3:R1004)</f>
@@ -879,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E40" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E41" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -2556,7 +2556,7 @@
         <v>17</v>
       </c>
       <c r="G36" s="13">
-        <f t="shared" ref="G36:Q40" si="4">$E36</f>
+        <f t="shared" ref="G36:Q41" si="4">$E36</f>
         <v>17</v>
       </c>
       <c r="H36" s="13">
@@ -2803,16 +2803,54 @@
       <c r="S40" s="3"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="G41" s="13"/>
+      <c r="A41" s="6">
+        <v>41513</v>
+      </c>
+      <c r="B41" s="15">
+        <v>151</v>
+      </c>
+      <c r="D41" s="3">
+        <v>8</v>
+      </c>
+      <c r="E41" s="14">
+        <f t="shared" si="0"/>
+        <v>18.875</v>
+      </c>
+      <c r="G41" s="13">
+        <f t="shared" si="4"/>
+        <v>18.875</v>
+      </c>
       <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
+      <c r="I41" s="13">
+        <f t="shared" si="4"/>
+        <v>18.875</v>
+      </c>
+      <c r="J41" s="13">
+        <f t="shared" si="4"/>
+        <v>18.875</v>
+      </c>
+      <c r="K41" s="13">
+        <f t="shared" si="4"/>
+        <v>18.875</v>
+      </c>
       <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
+      <c r="M41" s="13">
+        <f t="shared" si="4"/>
+        <v>18.875</v>
+      </c>
+      <c r="N41" s="13">
+        <f t="shared" si="4"/>
+        <v>18.875</v>
+      </c>
       <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
+      <c r="P41" s="13">
+        <f t="shared" si="4"/>
+        <v>18.875</v>
+      </c>
+      <c r="Q41" s="13">
+        <f t="shared" si="4"/>
+        <v>18.875</v>
+      </c>
       <c r="S41" s="3"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.15">
@@ -7540,7 +7578,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7615,11 +7653,11 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>5806</v>
+        <v>6106</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(H3:H1004)</f>
@@ -7635,7 +7673,7 @@
       </c>
       <c r="K2" s="3">
         <f t="shared" si="0"/>
-        <v>615</v>
+        <v>715</v>
       </c>
       <c r="L2" s="3">
         <f>SUM(L3:L1004)</f>
@@ -8005,7 +8043,15 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
+      <c r="A26" s="6">
+        <v>41513</v>
+      </c>
+      <c r="G26" s="3">
+        <v>200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>100</v>
+      </c>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -716,11 +716,11 @@
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>233.00000000000017</v>
+        <v>433.00000000000017</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>233</v>
+        <v>433</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
@@ -732,7 +732,7 @@
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>-87.074747474747426</v>
+        <v>112.92525252525257</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>41509</v>
       </c>
@@ -2745,7 +2745,7 @@
       <c r="Q39" s="13"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>41512</v>
       </c>
@@ -7578,7 +7578,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>6106</v>
+        <v>6306</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -7665,7 +7665,7 @@
       </c>
       <c r="I2" s="3">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J2" s="3">
         <f t="shared" si="0"/>
@@ -8047,6 +8047,9 @@
         <v>41513</v>
       </c>
       <c r="G26" s="3">
+        <v>200</v>
+      </c>
+      <c r="I26" s="3">
         <v>200</v>
       </c>
       <c r="K26" s="3">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,39 +712,39 @@
       </c>
       <c r="B2" s="16">
         <f>SUM($B5:$B1024)</f>
-        <v>5873</v>
+        <v>5979</v>
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>433.00000000000017</v>
+        <v>527.00000000000011</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>433</v>
+        <v>527</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>98.908189033189046</v>
+        <v>85.658189033189046</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>-46.573953823953843</v>
+        <v>140.17604617604616</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>112.92525252525257</v>
+        <v>99.675252525252574</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>-21.883477633477582</v>
+        <v>-35.133477633477582</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>65.033189033189046</v>
+        <v>51.783189033189046</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>131.17803030303031</v>
+        <v>117.92803030303025</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
@@ -760,11 +760,11 @@
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>93.783189033189046</v>
+        <v>80.533189033189046</v>
       </c>
       <c r="Q2" s="13">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
-        <v>58.533189033189046</v>
+        <v>45.283189033189046</v>
       </c>
       <c r="R2" s="3">
         <f>充值!R2-SUM(R3:R1004)</f>
@@ -879,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E41" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E42" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -2556,7 +2556,7 @@
         <v>17</v>
       </c>
       <c r="G36" s="13">
-        <f t="shared" ref="G36:Q41" si="4">$E36</f>
+        <f t="shared" ref="G36:Q42" si="4">$E36</f>
         <v>17</v>
       </c>
       <c r="H36" s="13">
@@ -2854,16 +2854,54 @@
       <c r="S41" s="3"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
+      <c r="A42" s="6">
+        <v>41514</v>
+      </c>
+      <c r="B42" s="15">
+        <v>106</v>
+      </c>
+      <c r="D42" s="3">
+        <v>8</v>
+      </c>
+      <c r="E42" s="14">
+        <f t="shared" si="0"/>
+        <v>13.25</v>
+      </c>
+      <c r="G42" s="13">
+        <f t="shared" si="4"/>
+        <v>13.25</v>
+      </c>
+      <c r="H42" s="13">
+        <f t="shared" si="4"/>
+        <v>13.25</v>
+      </c>
+      <c r="I42" s="13">
+        <f t="shared" si="4"/>
+        <v>13.25</v>
+      </c>
+      <c r="J42" s="13">
+        <f t="shared" si="4"/>
+        <v>13.25</v>
+      </c>
+      <c r="K42" s="13">
+        <f t="shared" si="4"/>
+        <v>13.25</v>
+      </c>
+      <c r="L42" s="13">
+        <f t="shared" si="4"/>
+        <v>13.25</v>
+      </c>
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
+      <c r="P42" s="13">
+        <f t="shared" si="4"/>
+        <v>13.25</v>
+      </c>
+      <c r="Q42" s="13">
+        <f t="shared" si="4"/>
+        <v>13.25</v>
+      </c>
       <c r="S42" s="3"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.15">
@@ -7578,7 +7616,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7653,7 +7691,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>6306</v>
+        <v>6506</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -7661,7 +7699,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(H3:H1004)</f>
-        <v>515</v>
+        <v>715</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" si="0"/>
@@ -8058,7 +8096,12 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
+      <c r="A27" s="6">
+        <v>41514</v>
+      </c>
+      <c r="H27" s="3">
+        <v>200</v>
+      </c>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+      <selection sqref="A1:Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,35 +712,35 @@
       </c>
       <c r="B2" s="16">
         <f>SUM($B5:$B1024)</f>
-        <v>5979</v>
+        <v>6126</v>
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>527.00000000000011</v>
+        <v>579.99999999999977</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>527</v>
+        <v>580</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>85.658189033189046</v>
+        <v>70.958189033189001</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>140.17604617604616</v>
+        <v>125.47604617604611</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>99.675252525252574</v>
+        <v>84.975252525252586</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>-35.133477633477582</v>
+        <v>150.16652236652237</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>51.783189033189046</v>
+        <v>37.083189033189001</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
@@ -748,23 +748,23 @@
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>-35.841810966810954</v>
+        <v>-50.541810966810999</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>3.7046176046176242</v>
+        <v>-10.995382395382421</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
-        <v>-26.766414141414145</v>
+        <v>-41.466414141414134</v>
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>80.533189033189046</v>
+        <v>65.833189033189001</v>
       </c>
       <c r="Q2" s="13">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
-        <v>45.283189033189046</v>
+        <v>30.583189033189058</v>
       </c>
       <c r="R2" s="3">
         <f>充值!R2-SUM(R3:R1004)</f>
@@ -879,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E42" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E43" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -2556,7 +2556,7 @@
         <v>17</v>
       </c>
       <c r="G36" s="13">
-        <f t="shared" ref="G36:Q42" si="4">$E36</f>
+        <f t="shared" ref="G36:Q43" si="4">$E36</f>
         <v>17</v>
       </c>
       <c r="H36" s="13">
@@ -2905,16 +2905,60 @@
       <c r="S42" s="3"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
+      <c r="A43" s="6">
+        <v>41515</v>
+      </c>
+      <c r="B43" s="15">
+        <v>147</v>
+      </c>
+      <c r="D43" s="3">
+        <v>10</v>
+      </c>
+      <c r="E43" s="14">
+        <f t="shared" si="0"/>
+        <v>14.7</v>
+      </c>
+      <c r="G43" s="13">
+        <f t="shared" si="4"/>
+        <v>14.7</v>
+      </c>
+      <c r="H43" s="13">
+        <f t="shared" si="4"/>
+        <v>14.7</v>
+      </c>
+      <c r="I43" s="13">
+        <f t="shared" si="4"/>
+        <v>14.7</v>
+      </c>
+      <c r="J43" s="13">
+        <f t="shared" si="4"/>
+        <v>14.7</v>
+      </c>
+      <c r="K43" s="13">
+        <f t="shared" si="4"/>
+        <v>14.7</v>
+      </c>
       <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
+      <c r="M43" s="13">
+        <f t="shared" si="4"/>
+        <v>14.7</v>
+      </c>
+      <c r="N43" s="13">
+        <f t="shared" si="4"/>
+        <v>14.7</v>
+      </c>
+      <c r="O43" s="13">
+        <f t="shared" si="4"/>
+        <v>14.7</v>
+      </c>
+      <c r="P43" s="13">
+        <f t="shared" si="4"/>
+        <v>14.7</v>
+      </c>
+      <c r="Q43" s="13">
+        <f t="shared" si="4"/>
+        <v>14.7</v>
+      </c>
       <c r="S43" s="3"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.15">
@@ -7616,7 +7660,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7691,7 +7735,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>6506</v>
+        <v>6706</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -7707,7 +7751,7 @@
       </c>
       <c r="J2" s="3">
         <f t="shared" si="0"/>
-        <v>515</v>
+        <v>715</v>
       </c>
       <c r="K2" s="3">
         <f t="shared" si="0"/>
@@ -8105,7 +8149,12 @@
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
+      <c r="A28" s="6">
+        <v>41515</v>
+      </c>
+      <c r="J28" s="3">
+        <v>200</v>
+      </c>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">

--- a/饭团帐目.xlsx
+++ b/饭团帐目.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:AF431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:Q43"/>
+      <selection sqref="A1:Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,59 +712,59 @@
       </c>
       <c r="B2" s="16">
         <f>SUM($B5:$B1024)</f>
-        <v>6126</v>
+        <v>6425</v>
       </c>
       <c r="C2" s="17">
         <f>SUM(G$2:ZZ$2)</f>
-        <v>579.99999999999977</v>
+        <v>341.00000000000017</v>
       </c>
       <c r="D2" s="13">
         <f>充值!B2-B2</f>
-        <v>580</v>
+        <v>341</v>
       </c>
       <c r="G2" s="13">
         <f>充值!G2-SUM(G3:G1004)</f>
-        <v>70.958189033189001</v>
+        <v>39.158189033189046</v>
       </c>
       <c r="H2" s="13">
         <f>充值!H2-SUM(H3:H1004)</f>
-        <v>125.47604617604611</v>
+        <v>93.676046176046157</v>
       </c>
       <c r="I2" s="13">
         <f>充值!I2-SUM(I3:I1004)</f>
-        <v>84.975252525252586</v>
+        <v>53.175252525252631</v>
       </c>
       <c r="J2" s="13">
         <f>充值!J2-SUM(J3:J1004)</f>
-        <v>150.16652236652237</v>
+        <v>137.36652236652242</v>
       </c>
       <c r="K2" s="13">
         <f>充值!K2-SUM(K3:K1004)</f>
-        <v>37.083189033189001</v>
+        <v>5.2831890331890463</v>
       </c>
       <c r="L2" s="13">
         <f>充值!L2-SUM(L3:L1004)</f>
-        <v>117.92803030303025</v>
+        <v>98.928030303030255</v>
       </c>
       <c r="M2" s="13">
         <f>充值!M2-SUM(M3:M1004)</f>
-        <v>-50.541810966810999</v>
+        <v>-82.341810966810954</v>
       </c>
       <c r="N2" s="13">
         <f>充值!N2-SUM(N3:N1004)</f>
-        <v>-10.995382395382421</v>
+        <v>-42.795382395382376</v>
       </c>
       <c r="O2" s="13">
         <f>充值!O2-SUM(O3:O1004)</f>
-        <v>-41.466414141414134</v>
+        <v>5.7335858585858546</v>
       </c>
       <c r="P2" s="13">
         <f>充值!P2-SUM(P3:P1004)</f>
-        <v>65.833189033189001</v>
+        <v>34.033189033189046</v>
       </c>
       <c r="Q2" s="13">
         <f>充值!Q2-SUM(Q3:Q1004)</f>
-        <v>30.583189033189058</v>
+        <v>-1.2168109668109537</v>
       </c>
       <c r="R2" s="3">
         <f>充值!R2-SUM(R3:R1004)</f>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -840,7 +840,7 @@
       <c r="P3" s="13"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:32" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -879,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E5:E43" si="0">B5/D5</f>
+        <f t="shared" ref="E5:E45" si="0">B5/D5</f>
         <v>15.777777777777779</v>
       </c>
       <c r="G5" s="13">
@@ -2556,7 +2556,7 @@
         <v>17</v>
       </c>
       <c r="G36" s="13">
-        <f t="shared" ref="G36:Q43" si="4">$E36</f>
+        <f t="shared" ref="G36:Q45" si="4">$E36</f>
         <v>17</v>
       </c>
       <c r="H36" s="13">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>41513</v>
       </c>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>41514</v>
       </c>
@@ -2962,32 +2962,120 @@
       <c r="S43" s="3"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
+      <c r="A44" s="6">
+        <v>41516</v>
+      </c>
+      <c r="B44" s="15">
+        <v>128</v>
+      </c>
+      <c r="D44" s="3">
+        <v>10</v>
+      </c>
+      <c r="E44" s="14">
+        <f t="shared" si="0"/>
+        <v>12.8</v>
+      </c>
+      <c r="G44" s="13">
+        <f t="shared" si="4"/>
+        <v>12.8</v>
+      </c>
+      <c r="H44" s="13">
+        <f t="shared" si="4"/>
+        <v>12.8</v>
+      </c>
+      <c r="I44" s="13">
+        <f t="shared" si="4"/>
+        <v>12.8</v>
+      </c>
+      <c r="J44" s="13">
+        <f t="shared" si="4"/>
+        <v>12.8</v>
+      </c>
+      <c r="K44" s="13">
+        <f t="shared" si="4"/>
+        <v>12.8</v>
+      </c>
       <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
+      <c r="M44" s="13">
+        <f t="shared" si="4"/>
+        <v>12.8</v>
+      </c>
+      <c r="N44" s="13">
+        <f t="shared" si="4"/>
+        <v>12.8</v>
+      </c>
+      <c r="O44" s="13">
+        <f t="shared" si="4"/>
+        <v>12.8</v>
+      </c>
+      <c r="P44" s="13">
+        <f t="shared" si="4"/>
+        <v>12.8</v>
+      </c>
+      <c r="Q44" s="13">
+        <f t="shared" si="4"/>
+        <v>12.8</v>
+      </c>
       <c r="S44" s="3"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
+      <c r="A45" s="6">
+        <v>41519</v>
+      </c>
+      <c r="B45" s="15">
+        <v>171</v>
+      </c>
+      <c r="D45" s="3">
+        <v>9</v>
+      </c>
+      <c r="E45" s="14">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G45" s="13">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="H45" s="13">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="I45" s="13">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
       <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
+      <c r="K45" s="13">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="L45" s="13">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="M45" s="13">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="N45" s="13">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
       <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
+      <c r="P45" s="13">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="Q45" s="13">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
       <c r="S45" s="3"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A46" s="6">
+        <v>41520</v>
+      </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
@@ -7660,7 +7748,7 @@
   <dimension ref="A1:AD79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7735,7 +7823,7 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(G2:Z2)</f>
-        <v>6706</v>
+        <v>6766</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:K2" si="0">SUM(G3:G1004)</f>
@@ -7771,7 +7859,7 @@
       </c>
       <c r="O2" s="3">
         <f t="shared" si="1"/>
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="P2" s="3">
         <f t="shared" si="1"/>
@@ -8158,7 +8246,12 @@
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A29" s="6"/>
+      <c r="A29" s="6">
+        <v>41520</v>
+      </c>
+      <c r="O29" s="3">
+        <v>60</v>
+      </c>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
